--- a/parameters/ModelG_Pembrolizumab_Params.xlsx
+++ b/parameters/ModelG_Pembrolizumab_Params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/git/TMDD_EndogenousLigand/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972C5F58-F1B3-2B41-AEB7-D2831116B092}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504E2932-CA99-684C-BB19-4A16E8723247}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2561,7 +2561,8 @@
         <v>87</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <f>1/30</f>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>18</v>
@@ -2571,7 +2572,7 @@
       </c>
       <c r="I29" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>=1/30</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>88</v>
@@ -2707,7 +2708,7 @@
       </c>
       <c r="F32" s="13">
         <f>(koff_TL+keTL)/kon_TL</f>
-        <v>10</v>
+        <v>10.066666666666666</v>
       </c>
       <c r="G32" s="27" t="s">
         <v>50</v>

--- a/parameters/ModelG_Pembrolizumab_Params.xlsx
+++ b/parameters/ModelG_Pembrolizumab_Params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/git/TMDD_EndogenousLigand/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504E2932-CA99-684C-BB19-4A16E8723247}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC13FCB-5B90-3B4E-B496-D858B70CCFB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1172,7 +1172,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/parameters/ModelG_Pembrolizumab_Params.xlsx
+++ b/parameters/ModelG_Pembrolizumab_Params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/git/TMDD_EndogenousLigand/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC13FCB-5B90-3B4E-B496-D858B70CCFB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84A7DF0-8407-0C4D-8ABA-6562347B25F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="98">
   <si>
     <t>Order</t>
   </si>
@@ -250,9 +250,6 @@
   </si>
   <si>
     <t>ksynT</t>
-  </si>
-  <si>
-    <t>GUESS</t>
   </si>
   <si>
     <t xml:space="preserve">pembro model </t>
@@ -415,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,9 +479,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -500,7 +494,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="33">
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -836,9 +833,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="firstRowStripe" dxfId="30"/>
-      <tableStyleElement type="secondRowStripe" dxfId="29"/>
+      <tableStyleElement type="headerRow" dxfId="32"/>
+      <tableStyleElement type="firstRowStripe" dxfId="31"/>
+      <tableStyleElement type="secondRowStripe" dxfId="30"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -860,7 +857,7 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Molecule"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Value"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Value" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Units"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Source"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Formula">
@@ -1172,7 +1169,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1181,7 +1178,8 @@
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="6" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="7" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" customWidth="1"/>
     <col min="8" max="8" width="15.5" customWidth="1"/>
     <col min="9" max="9" width="19.83203125" customWidth="1"/>
@@ -1205,7 +1203,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1253,7 +1251,7 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="13">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1300,7 +1298,7 @@
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="13">
         <v>0</v>
       </c>
       <c r="G3" s="14" t="s">
@@ -1445,7 +1443,7 @@
       <c r="E6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="16">
         <v>0.79500000000000004</v>
       </c>
       <c r="G6" s="18" t="s">
@@ -1458,7 +1456,7 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="23" t="s">
         <v>29</v>
       </c>
       <c r="K6" s="21"/>
@@ -1507,7 +1505,7 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="23" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="21"/>
@@ -1595,7 +1593,7 @@
         <f>Q_/V1_</f>
         <v>0.22844827586206898</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -1643,7 +1641,7 @@
         <f>Q_/V2_</f>
         <v>0.19581280788177344</v>
       </c>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="24" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -1681,8 +1679,8 @@
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>98</v>
+      <c r="D11" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>40</v>
@@ -1789,7 +1787,7 @@
         <f>Vm*1000/MWD</f>
         <v>0</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="24" t="s">
         <v>48</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -2033,15 +2031,15 @@
       <c r="G18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>65</v>
+      <c r="H18" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="I18" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -2074,7 +2072,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19" s="7">
         <v>3</v>
@@ -2083,14 +2081,14 @@
         <v>18</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I19" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -2120,10 +2118,10 @@
         <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="F20" s="7">
         <v>0.93899999999999995</v>
@@ -2139,7 +2137,7 @@
         <v/>
       </c>
       <c r="J20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -2172,7 +2170,7 @@
         <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F21" s="5">
         <v>6</v>
@@ -2181,7 +2179,7 @@
         <v>18</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2216,12 +2214,12 @@
         <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="F22" s="13">
         <v>9.9000000000000008E-3</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -2263,12 +2261,12 @@
         <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="F23" s="13">
         <f>koff_DT/F26</f>
         <v>0.42352941176470588</v>
       </c>
@@ -2304,26 +2302,26 @@
       <c r="A24" s="13">
         <v>24.5</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E24" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="F24" s="14">
+      <c r="F24" s="13">
         <f>(koff_DT+keDT)/kon_DT</f>
         <v>1.1588235294117646</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="25" t="s">
         <v>34</v>
       </c>
       <c r="I24" s="15" t="str">
@@ -2359,12 +2357,12 @@
         <v>62</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="F25" s="13">
         <v>3.456</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -2378,7 +2376,7 @@
         <v/>
       </c>
       <c r="J25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -2408,16 +2406,16 @@
         <v>62</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="F26" s="9">
         <v>8.16</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>34</v>
@@ -2427,7 +2425,7 @@
         <v/>
       </c>
       <c r="J26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -2454,13 +2452,13 @@
         <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F27" s="10">
         <v>22</v>
@@ -2469,14 +2467,14 @@
         <v>48</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I27" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J27" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -2503,29 +2501,29 @@
         <v>61</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="1">
+        <v>84</v>
+      </c>
+      <c r="F28" s="13">
         <v>3</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I28" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -2552,15 +2550,15 @@
         <v>61</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="1">
+        <v>86</v>
+      </c>
+      <c r="F29" s="13">
         <f>1/30</f>
         <v>3.3333333333333333E-2</v>
       </c>
@@ -2568,14 +2566,14 @@
         <v>18</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I29" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=1/30</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -2602,15 +2600,15 @@
         <v>61</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="1">
+        <v>88</v>
+      </c>
+      <c r="F30" s="13">
         <v>7.47</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -2624,7 +2622,7 @@
         <v/>
       </c>
       <c r="J30" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -2651,15 +2649,15 @@
         <v>51</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" s="1">
+        <v>90</v>
+      </c>
+      <c r="F31" s="13">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -2694,26 +2692,26 @@
       <c r="A32" s="13">
         <v>31.5</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>97</v>
+      <c r="C32" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="F32" s="13">
         <f>(koff_TL+keTL)/kon_TL</f>
         <v>10.066666666666666</v>
       </c>
-      <c r="G32" s="27" t="s">
+      <c r="G32" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="25" t="s">
         <v>34</v>
       </c>
       <c r="I32" s="15" t="str">
@@ -2746,13 +2744,13 @@
         <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F33" s="11">
         <v>5</v>
@@ -2761,14 +2759,14 @@
         <v>18</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I33" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J33" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2795,20 +2793,20 @@
         <v>51</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F34" s="1">
+        <v>93</v>
+      </c>
+      <c r="F34" s="13">
         <f>koff_TL/Kd_TL</f>
         <v>0.5</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>34</v>
@@ -9205,137 +9203,137 @@
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="F216:F1002">
-    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="derived">
+    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="derived">
       <formula>NOT(ISERROR(SEARCH(("derived"),(F216))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:Z1 K2:Z3 E13:H14 B4:H12 B15:H21 B25:H34 B22:E24 G22:H24 A4:A34 J4:Z34">
-    <cfRule type="containsText" dxfId="27" priority="10" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="28" priority="10" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH(("calc"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1 H35:I1002 H4:H34">
-    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH(("literature"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1 H35:I1002 H4:H34">
-    <cfRule type="containsText" dxfId="25" priority="12" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH(("guess"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1 H35:I1002 H4:H34">
-    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="not used">
+    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH(("not used"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1 H35:I1002 H4:H34">
-    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="24" priority="14" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH(("literature"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1 H35:I1002 H4:H34">
-    <cfRule type="containsText" dxfId="22" priority="15" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH(("guess"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1 H35:I1002 H4:H34">
-    <cfRule type="containsText" dxfId="21" priority="16" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="22" priority="16" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH(("calc"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1 H35:I1002 H4:H34">
-    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH(("check"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1 H4:H1002">
-    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="internal data">
+    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH(("internal data"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:H3 J2:J3">
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH(("calc"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH(("literature"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH(("guess"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="containsText" dxfId="15" priority="22" operator="containsText" text="not used">
+    <cfRule type="containsText" dxfId="16" priority="22" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH(("not used"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH(("literature"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="containsText" dxfId="13" priority="24" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="14" priority="24" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH(("guess"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH(("calc"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="containsText" dxfId="11" priority="26" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="12" priority="26" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH(("check"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="containsText" dxfId="10" priority="27" operator="containsText" text="internal data">
+    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH(("internal data"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:D14">
-    <cfRule type="containsText" dxfId="9" priority="28" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="10" priority="28" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH(("calc"),(B13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:F24">
-    <cfRule type="containsText" dxfId="8" priority="29" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="9" priority="29" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH(("calc"),(F23))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I34">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I34">
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I34">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="not used">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",I2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/parameters/ModelG_Pembrolizumab_Params.xlsx
+++ b/parameters/ModelG_Pembrolizumab_Params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/git/TMDD_EndogenousLigand/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84A7DF0-8407-0C4D-8ABA-6562347B25F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE83F36-AA23-5F4D-AFF4-BDB75BB36375}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/parameters/ModelG_Pembrolizumab_Params.xlsx
+++ b/parameters/ModelG_Pembrolizumab_Params.xlsx
@@ -8,35 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/git/TMDD_EndogenousLigand/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE83F36-AA23-5F4D-AFF4-BDB75BB36375}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622AD7AA-0F2E-AF46-A90A-36873D15FE3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="3740" windowWidth="28800" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="CL_">Sheet1!$F$4</definedName>
-    <definedName name="Imax">Sheet1!$F$20</definedName>
-    <definedName name="Kd_DT">Sheet1!$F$23</definedName>
+    <definedName name="Imax">Sheet1!#REF!</definedName>
+    <definedName name="Kd_DT">Sheet1!$F$24</definedName>
     <definedName name="Kd_TL">Sheet1!$F$31</definedName>
-    <definedName name="keDT">Sheet1!$F$21</definedName>
-    <definedName name="keL">Sheet1!$F$28</definedName>
+    <definedName name="keDT">Sheet1!$F$20</definedName>
+    <definedName name="keL">Sheet1!$F$29</definedName>
     <definedName name="keT">Sheet1!$F$19</definedName>
-    <definedName name="keTL">Sheet1!$F$29</definedName>
+    <definedName name="keTL">Sheet1!$F$30</definedName>
     <definedName name="keTs">Sheet1!$F$19</definedName>
     <definedName name="Km">Sheet1!$F$12</definedName>
-    <definedName name="koff_DT">Sheet1!$F$25</definedName>
+    <definedName name="koff_DT">Sheet1!$F$26</definedName>
     <definedName name="koff_TL">Sheet1!$F$33</definedName>
-    <definedName name="kon_DT">Sheet1!$F$26</definedName>
+    <definedName name="kon_DT">Sheet1!$F$27</definedName>
     <definedName name="kon_TL">Sheet1!$F$34</definedName>
-    <definedName name="ksynL">Sheet1!$F$27</definedName>
+    <definedName name="ksynL">Sheet1!$F$28</definedName>
     <definedName name="ksynTs">Sheet1!$F$18</definedName>
+    <definedName name="L0">Sheet1!$F$22</definedName>
     <definedName name="m">Sheet1!$F$35</definedName>
     <definedName name="MWD">Sheet1!$F$15</definedName>
     <definedName name="MWLs">Sheet1!$F$17</definedName>
     <definedName name="MWTs">Sheet1!$F$16</definedName>
     <definedName name="Q_">Sheet1!$F$6</definedName>
+    <definedName name="T0">Sheet1!$F$21</definedName>
+    <definedName name="TL0">Sheet1!$F$23</definedName>
     <definedName name="V1_">Sheet1!$F$5</definedName>
     <definedName name="V2_">Sheet1!$F$7</definedName>
     <definedName name="Vm">Sheet1!$F$11</definedName>
@@ -261,15 +264,6 @@
     <t>guess</t>
   </si>
   <si>
-    <t>"Inhibition"</t>
-  </si>
-  <si>
-    <t>Imax</t>
-  </si>
-  <si>
-    <t>Gibiansky12 - Table 2 doi 10.1007/s10928-011-9227-z</t>
-  </si>
-  <si>
     <t>keDT</t>
   </si>
   <si>
@@ -306,27 +300,15 @@
     <t>ksynL</t>
   </si>
   <si>
-    <t>From Atezolizumab paper tumor synthesis rate</t>
-  </si>
-  <si>
     <t>keL</t>
   </si>
   <si>
-    <t>from Atezolizumab model</t>
-  </si>
-  <si>
     <t>keTL</t>
   </si>
   <si>
-    <t>should not get removed</t>
-  </si>
-  <si>
     <t>L0</t>
   </si>
   <si>
-    <t>atezolizumab M30</t>
-  </si>
-  <si>
     <t>Kd_TL</t>
   </si>
   <si>
@@ -349,17 +331,37 @@
   </si>
   <si>
     <t>Nonlinear Elim Vmax</t>
+  </si>
+  <si>
+    <t>from Pembrolizumab model in Ahmed19 in circulation - https://doi.org/10.1007/s10928-019-09638-3</t>
+  </si>
+  <si>
+    <t>from Atezolizumab model in Ahmed19 in circulation - https://doi.org/10.1007/s10928-019-09638-3</t>
+  </si>
+  <si>
+    <t>TL0</t>
+  </si>
+  <si>
+    <t>Complex</t>
+  </si>
+  <si>
+    <t>From target calculation (keT) from ModelG_Tocilizumab file</t>
+  </si>
+  <si>
+    <t>From target calculation (keTL) from ModelG_Tocilizumab file</t>
+  </si>
+  <si>
+    <t>Lindauer17 - 10.1002/psp4.12130 - .144/h * 24h/d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -374,26 +376,52 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -408,11 +436,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF4F81BD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -441,22 +480,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -468,7 +498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -481,22 +511,236 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="52">
     <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -807,6 +1051,9 @@
       </fill>
     </dxf>
     <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFDBE5F1"/>
@@ -833,9 +1080,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Sheet1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="32"/>
-      <tableStyleElement type="firstRowStripe" dxfId="31"/>
-      <tableStyleElement type="secondRowStripe" dxfId="30"/>
+      <tableStyleElement type="headerRow" dxfId="51"/>
+      <tableStyleElement type="firstRowStripe" dxfId="50"/>
+      <tableStyleElement type="secondRowStripe" dxfId="49"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -857,7 +1104,7 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Molecule"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Description"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Value" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Value" dataDxfId="48"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Units"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Source"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Formula">
@@ -1168,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1203,7 +1450,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1251,7 +1498,7 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1260,7 +1507,7 @@
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="15" t="str">
+      <c r="I2" s="12" t="str">
         <f t="shared" ref="I2:I34" ca="1" si="0">_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</f>
         <v/>
       </c>
@@ -1298,16 +1545,16 @@
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <v>0</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="15" t="str">
+      <c r="I3" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1329,201 +1576,201 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+    <row r="4" spans="1:26" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="14">
         <v>0.22</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="19" t="str">
+      <c r="I4" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-    </row>
-    <row r="5" spans="1:26" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+    </row>
+    <row r="5" spans="1:26" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="14">
         <v>3.48</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="19" t="str">
+      <c r="I5" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-    </row>
-    <row r="6" spans="1:26" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+    </row>
+    <row r="6" spans="1:26" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="13">
         <v>0.79500000000000004</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="19" t="str">
+      <c r="I6" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-    </row>
-    <row r="7" spans="1:26" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+    </row>
+    <row r="7" spans="1:26" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="14">
         <v>4.0599999999999996</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="19" t="str">
+      <c r="I7" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -1551,7 +1798,7 @@
       <c r="H8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="15" t="str">
+      <c r="I8" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=CL_/V1_</v>
       </c>
@@ -1593,13 +1840,13 @@
         <f>Q_/V1_</f>
         <v>0.22844827586206898</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="21" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="15" t="str">
+      <c r="I9" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=Q_/V1_</v>
       </c>
@@ -1641,13 +1888,13 @@
         <f>Q_/V2_</f>
         <v>0.19581280788177344</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="21" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="15" t="str">
+      <c r="I10" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=Q_/V2_</v>
       </c>
@@ -1679,8 +1926,8 @@
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>97</v>
+      <c r="D11" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>40</v>
@@ -1694,7 +1941,7 @@
       <c r="H11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="15" t="str">
+      <c r="I11" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1743,7 +1990,7 @@
       <c r="H12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="15" t="str">
+      <c r="I12" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1787,13 +2034,13 @@
         <f>Vm*1000/MWD</f>
         <v>0</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="21" t="s">
         <v>48</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="15" t="str">
+      <c r="I13" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=Vm*1000/MWD</v>
       </c>
@@ -1840,7 +2087,7 @@
       <c r="H14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="15" t="str">
+      <c r="I14" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1887,7 +2134,7 @@
       <c r="H15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="15" t="str">
+      <c r="I15" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1936,7 +2183,7 @@
       <c r="H16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="15" t="str">
+      <c r="I16" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -1985,7 +2232,7 @@
       <c r="H17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="15" t="str">
+      <c r="I17" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -2025,16 +2272,14 @@
       <c r="E18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="8">
-        <v>1.5</v>
-      </c>
+      <c r="F18" s="8"/>
       <c r="G18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H18" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="15" t="str">
+      <c r="H18" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -2075,7 +2320,7 @@
         <v>66</v>
       </c>
       <c r="F19" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>18</v>
@@ -2083,7 +2328,7 @@
       <c r="H19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="15" t="str">
+      <c r="I19" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
@@ -2109,7 +2354,7 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>61</v>
@@ -2118,27 +2363,25 @@
         <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0.93899999999999995</v>
+      <c r="F20" s="5">
+        <v>6</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="15" t="str">
+        <v>67</v>
+      </c>
+      <c r="I20" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>70</v>
-      </c>
+      <c r="J20" s="2"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -2158,7 +2401,7 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>61</v>
@@ -2167,25 +2410,27 @@
         <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="5">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="F21" s="10">
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="15" t="str">
+        <v>50</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J21" s="2"/>
+      <c r="J21" s="23" t="s">
+        <v>91</v>
+      </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -2205,227 +2450,225 @@
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="12" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F22),"")</f>
+        <v/>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="12" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F23),"")</f>
+        <v/>
+      </c>
+      <c r="J23" s="23"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F24" s="10">
+        <f>koff_DT/F27</f>
+        <v>0.42352941176470588</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>=koff_DT/F27</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>24.5</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="10">
+        <f>(koff_DT+keDT)/kon_DT</f>
+        <v>1.1588235294117646</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="12" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F25),"")</f>
+        <v>=(koff_DT+keDT)/kon_DT</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="13">
-        <v>9.9000000000000008E-3</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="15" t="str">
+      <c r="E26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="10">
+        <v>3.456</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="13">
-        <f>koff_DT/F26</f>
-        <v>0.42352941176470588</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=koff_DT/F26</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13">
-        <v>24.5</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24" s="13">
-        <f>(koff_DT+keDT)/kon_DT</f>
-        <v>1.1588235294117646</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="15" t="str">
-        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F24),"")</f>
-        <v>=(koff_DT+keDT)/kon_DT</v>
-      </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>25</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="13">
-        <v>3.456</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="9">
-        <v>8.16</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>65</v>
+      <c r="J26" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -2446,35 +2689,35 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="10">
+        <v>76</v>
+      </c>
+      <c r="F27" s="9">
+        <v>8.16</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I27" s="15" t="str">
+      <c r="I27" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>83</v>
+      <c r="J27" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -2495,36 +2738,35 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="13">
-        <v>3</v>
+        <v>79</v>
+      </c>
+      <c r="F28" s="31">
+        <f>L0*(kon_TL*T0+keL)-koff_TL*TL0</f>
+        <v>0.85742499999999988</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I28" s="15" t="str">
+        <v>48</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>85</v>
-      </c>
+        <v>=L0*(kon_TL*T0+keL)-koff_TL*TL0</v>
+      </c>
+      <c r="J28" s="2"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -2544,36 +2786,35 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="13">
-        <f>1/30</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="G29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="25">
+        <v>6</v>
+      </c>
+      <c r="G29" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="I29" s="15" t="str">
+      <c r="I29" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=1/30</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>87</v>
+        <v/>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>95</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -2594,35 +2835,35 @@
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" s="13">
-        <v>7.47</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I30" s="15" t="str">
+      <c r="F30" s="25">
+        <v>8</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="27" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>89</v>
+      <c r="J30" s="28" t="s">
+        <v>96</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -2649,28 +2890,28 @@
         <v>51</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31" s="13">
-        <v>10</v>
-      </c>
-      <c r="G31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="29">
+        <v>1</v>
+      </c>
+      <c r="G31" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="15" t="str">
+      <c r="H31" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" s="30" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J31" s="2"/>
+      <c r="J31" s="23"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -2689,36 +2930,36 @@
       <c r="Z31" s="3"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13">
+      <c r="A32" s="10">
         <v>31.5</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" s="13">
-        <f>(koff_TL+keTL)/kon_TL</f>
-        <v>10.066666666666666</v>
-      </c>
-      <c r="G32" s="26" t="s">
+      <c r="C32" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="29">
+        <f>Kd_TL+keTL/kon_TL</f>
+        <v>2.6</v>
+      </c>
+      <c r="G32" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="H32" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I32" s="15" t="str">
+      <c r="I32" s="30" t="str">
         <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F32),"")</f>
-        <v>=(koff_TL+keTL)/kon_TL</v>
-      </c>
-      <c r="J32" s="14"/>
+        <v>=Kd_TL+keTL/kon_TL</v>
+      </c>
+      <c r="J32" s="23"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
@@ -2744,29 +2985,30 @@
         <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F33" s="11">
+        <v>84</v>
+      </c>
+      <c r="F33" s="29">
+        <f>Kd_TL*kon_TL</f>
         <v>5</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I33" s="15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>92</v>
+      <c r="H33" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="30" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F33),"")</f>
+        <v>=Kd_TL*kon_TL</v>
+      </c>
+      <c r="J33" s="23" t="s">
+        <v>85</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2793,29 +3035,30 @@
         <v>51</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" s="13">
-        <f>koff_TL/Kd_TL</f>
-        <v>0.5</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="15" t="str">
+        <v>86</v>
+      </c>
+      <c r="F34" s="29">
+        <v>5</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" s="30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=koff_TL/Kd_TL</v>
-      </c>
-      <c r="J34" s="2"/>
+        <v/>
+      </c>
+      <c r="J34" s="23" t="s">
+        <v>85</v>
+      </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -2834,16 +3077,16 @@
       <c r="Z34" s="3"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="14"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -2862,16 +3105,16 @@
       <c r="Z35" s="3"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="14"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="11"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -2890,16 +3133,16 @@
       <c r="Z36" s="3"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="14"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="11"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -2918,16 +3161,16 @@
       <c r="Z37" s="3"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="14"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="11"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -2946,16 +3189,16 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="14"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="11"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -2974,16 +3217,16 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="14"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="11"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -3002,16 +3245,16 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="14"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="11"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -3030,16 +3273,16 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="14"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="11"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -3058,16 +3301,16 @@
       <c r="Z42" s="3"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="14"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="11"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -3086,16 +3329,16 @@
       <c r="Z43" s="3"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="14"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="11"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -3114,16 +3357,16 @@
       <c r="Z44" s="3"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="14"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="11"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -3142,16 +3385,16 @@
       <c r="Z45" s="3"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="14"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="11"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -3170,16 +3413,16 @@
       <c r="Z46" s="3"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="14"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="11"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -3198,16 +3441,16 @@
       <c r="Z47" s="3"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="14"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="11"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -3226,16 +3469,16 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="14"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="11"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -3254,16 +3497,16 @@
       <c r="Z49" s="3"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="14"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="11"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -3282,16 +3525,16 @@
       <c r="Z50" s="3"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="14"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="11"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -3310,16 +3553,16 @@
       <c r="Z51" s="3"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="14"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="11"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -3338,16 +3581,16 @@
       <c r="Z52" s="3"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="14"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="11"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -3366,16 +3609,16 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="14"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="11"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -3394,16 +3637,16 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="14"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="11"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -3422,16 +3665,16 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="14"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="11"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
@@ -3450,16 +3693,16 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="14"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="11"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
@@ -3478,16 +3721,16 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="14"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="11"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -3506,16 +3749,16 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="14"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="11"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -3534,16 +3777,16 @@
       <c r="Z59" s="3"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="14"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="11"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -3562,16 +3805,16 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="14"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="11"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -3590,16 +3833,16 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="14"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="11"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -3618,16 +3861,16 @@
       <c r="Z62" s="3"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="14"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="11"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -3646,16 +3889,16 @@
       <c r="Z63" s="3"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="14"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="11"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -3674,16 +3917,16 @@
       <c r="Z64" s="3"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="13"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="14"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="11"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
@@ -3702,16 +3945,16 @@
       <c r="Z65" s="3"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="14"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="11"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
@@ -3730,16 +3973,16 @@
       <c r="Z66" s="3"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="14"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="11"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
@@ -3758,16 +4001,16 @@
       <c r="Z67" s="3"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="14"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="11"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -3786,16 +4029,16 @@
       <c r="Z68" s="3"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="14"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="11"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
@@ -3814,16 +4057,16 @@
       <c r="Z69" s="3"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="14"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="11"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
@@ -3842,16 +4085,16 @@
       <c r="Z70" s="3"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="14"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="11"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
@@ -3870,16 +4113,16 @@
       <c r="Z71" s="3"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="14"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="11"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
@@ -3898,16 +4141,16 @@
       <c r="Z72" s="3"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="14"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="11"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
@@ -3926,16 +4169,16 @@
       <c r="Z73" s="3"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="14"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="11"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
@@ -3954,16 +4197,16 @@
       <c r="Z74" s="3"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="14"/>
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="11"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
@@ -3982,16 +4225,16 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="14"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="11"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
@@ -4010,16 +4253,16 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="14"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="11"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
@@ -4038,16 +4281,16 @@
       <c r="Z77" s="3"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="13"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="14"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="11"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
@@ -4066,16 +4309,16 @@
       <c r="Z78" s="3"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="14"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="11"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
@@ -4094,16 +4337,16 @@
       <c r="Z79" s="3"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="13"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="14"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="11"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
@@ -4122,16 +4365,16 @@
       <c r="Z80" s="3"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="14"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="11"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
@@ -4150,16 +4393,16 @@
       <c r="Z81" s="3"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="14"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="11"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
@@ -4178,16 +4421,16 @@
       <c r="Z82" s="3"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="14"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="11"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
@@ -4206,16 +4449,16 @@
       <c r="Z83" s="3"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="14"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="11"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
@@ -4234,16 +4477,16 @@
       <c r="Z84" s="3"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="14"/>
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="11"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
@@ -4262,16 +4505,16 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="14"/>
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="11"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
@@ -4290,16 +4533,16 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="14"/>
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="11"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
@@ -4318,16 +4561,16 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="14"/>
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="11"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
@@ -4346,16 +4589,16 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="14"/>
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="11"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
@@ -4374,16 +4617,16 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="14"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="11"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
@@ -4402,16 +4645,16 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="14"/>
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="11"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
@@ -4430,16 +4673,16 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="14"/>
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="11"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
@@ -4458,16 +4701,16 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="14"/>
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="11"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
@@ -4486,16 +4729,16 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
-      <c r="J94" s="14"/>
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="11"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
@@ -4514,16 +4757,16 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
-      <c r="J95" s="14"/>
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="11"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
@@ -4542,16 +4785,16 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
-      <c r="J96" s="14"/>
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="11"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
@@ -4570,16 +4813,16 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="13"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="14"/>
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="11"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
@@ -4598,16 +4841,16 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="13"/>
-      <c r="I98" s="13"/>
-      <c r="J98" s="14"/>
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="11"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
@@ -4626,16 +4869,16 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="13"/>
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
-      <c r="J99" s="14"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="11"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
@@ -4654,16 +4897,16 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="14"/>
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="11"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
@@ -4682,16 +4925,16 @@
       <c r="Z100" s="3"/>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="14"/>
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="11"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
@@ -4710,16 +4953,16 @@
       <c r="Z101" s="3"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="13"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="14"/>
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="11"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
@@ -4738,16 +4981,16 @@
       <c r="Z102" s="3"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="13"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
-      <c r="J103" s="14"/>
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="11"/>
       <c r="K103" s="3"/>
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
@@ -4766,16 +5009,16 @@
       <c r="Z103" s="3"/>
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="13"/>
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="14"/>
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="11"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
@@ -4794,16 +5037,16 @@
       <c r="Z104" s="3"/>
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="13"/>
-      <c r="B105" s="13"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="14"/>
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="11"/>
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
@@ -4822,16 +5065,16 @@
       <c r="Z105" s="3"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="13"/>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="14"/>
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="11"/>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
@@ -4850,16 +5093,16 @@
       <c r="Z106" s="3"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="13"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="14"/>
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="11"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
@@ -4878,16 +5121,16 @@
       <c r="Z107" s="3"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="13"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="14"/>
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="11"/>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
@@ -4906,16 +5149,16 @@
       <c r="Z108" s="3"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="13"/>
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="13"/>
-      <c r="J109" s="14"/>
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="11"/>
       <c r="K109" s="3"/>
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
@@ -4934,16 +5177,16 @@
       <c r="Z109" s="3"/>
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="13"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="14"/>
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="11"/>
       <c r="K110" s="3"/>
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
@@ -4962,16 +5205,16 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="13"/>
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
-      <c r="J111" s="14"/>
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="11"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
@@ -4990,16 +5233,16 @@
       <c r="Z111" s="3"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="13"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
-      <c r="J112" s="14"/>
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="11"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
@@ -5018,16 +5261,16 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="13"/>
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="13"/>
-      <c r="J113" s="14"/>
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="11"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
@@ -5046,16 +5289,16 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="13"/>
-      <c r="B114" s="13"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="13"/>
-      <c r="J114" s="14"/>
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="11"/>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
@@ -5074,16 +5317,16 @@
       <c r="Z114" s="3"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="13"/>
-      <c r="B115" s="13"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="13"/>
-      <c r="J115" s="14"/>
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="11"/>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
@@ -5102,16 +5345,16 @@
       <c r="Z115" s="3"/>
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="13"/>
-      <c r="B116" s="13"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="14"/>
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="11"/>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
@@ -5130,16 +5373,16 @@
       <c r="Z116" s="3"/>
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="13"/>
-      <c r="B117" s="13"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="13"/>
-      <c r="J117" s="14"/>
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="11"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
@@ -5158,16 +5401,16 @@
       <c r="Z117" s="3"/>
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="13"/>
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="13"/>
-      <c r="I118" s="13"/>
-      <c r="J118" s="14"/>
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="11"/>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
@@ -5186,16 +5429,16 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="13"/>
-      <c r="B119" s="13"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
-      <c r="I119" s="13"/>
-      <c r="J119" s="14"/>
+      <c r="A119" s="10"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="11"/>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
@@ -5214,16 +5457,16 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="13"/>
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
-      <c r="J120" s="14"/>
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="11"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
@@ -5242,16 +5485,16 @@
       <c r="Z120" s="3"/>
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="13"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
-      <c r="J121" s="14"/>
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="11"/>
       <c r="K121" s="3"/>
       <c r="L121" s="3"/>
       <c r="M121" s="3"/>
@@ -5270,16 +5513,16 @@
       <c r="Z121" s="3"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="13"/>
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
-      <c r="J122" s="14"/>
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="11"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
@@ -5298,16 +5541,16 @@
       <c r="Z122" s="3"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="13"/>
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="13"/>
-      <c r="I123" s="13"/>
-      <c r="J123" s="14"/>
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="11"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
@@ -5326,16 +5569,16 @@
       <c r="Z123" s="3"/>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="13"/>
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="13"/>
-      <c r="J124" s="14"/>
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="11"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
@@ -5354,16 +5597,16 @@
       <c r="Z124" s="3"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="13"/>
-      <c r="B125" s="13"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="13"/>
-      <c r="I125" s="13"/>
-      <c r="J125" s="14"/>
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="11"/>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
       <c r="M125" s="3"/>
@@ -5382,16 +5625,16 @@
       <c r="Z125" s="3"/>
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="13"/>
-      <c r="B126" s="13"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
-      <c r="J126" s="14"/>
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="11"/>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
       <c r="M126" s="3"/>
@@ -5410,16 +5653,16 @@
       <c r="Z126" s="3"/>
     </row>
     <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="13"/>
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="13"/>
-      <c r="I127" s="13"/>
-      <c r="J127" s="14"/>
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="11"/>
       <c r="K127" s="3"/>
       <c r="L127" s="3"/>
       <c r="M127" s="3"/>
@@ -5438,16 +5681,16 @@
       <c r="Z127" s="3"/>
     </row>
     <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="13"/>
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="13"/>
-      <c r="J128" s="14"/>
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="11"/>
       <c r="K128" s="3"/>
       <c r="L128" s="3"/>
       <c r="M128" s="3"/>
@@ -5466,16 +5709,16 @@
       <c r="Z128" s="3"/>
     </row>
     <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="13"/>
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="13"/>
-      <c r="J129" s="14"/>
+      <c r="A129" s="10"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="11"/>
       <c r="K129" s="3"/>
       <c r="L129" s="3"/>
       <c r="M129" s="3"/>
@@ -5494,16 +5737,16 @@
       <c r="Z129" s="3"/>
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="13"/>
-      <c r="B130" s="13"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13"/>
-      <c r="E130" s="13"/>
-      <c r="F130" s="13"/>
-      <c r="G130" s="13"/>
-      <c r="H130" s="13"/>
-      <c r="I130" s="13"/>
-      <c r="J130" s="14"/>
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="11"/>
       <c r="K130" s="3"/>
       <c r="L130" s="3"/>
       <c r="M130" s="3"/>
@@ -5522,16 +5765,16 @@
       <c r="Z130" s="3"/>
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="13"/>
-      <c r="B131" s="13"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
-      <c r="E131" s="13"/>
-      <c r="F131" s="13"/>
-      <c r="G131" s="13"/>
-      <c r="H131" s="13"/>
-      <c r="I131" s="13"/>
-      <c r="J131" s="14"/>
+      <c r="A131" s="10"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="11"/>
       <c r="K131" s="3"/>
       <c r="L131" s="3"/>
       <c r="M131" s="3"/>
@@ -5550,16 +5793,16 @@
       <c r="Z131" s="3"/>
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="13"/>
-      <c r="B132" s="13"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13"/>
-      <c r="E132" s="13"/>
-      <c r="F132" s="13"/>
-      <c r="G132" s="13"/>
-      <c r="H132" s="13"/>
-      <c r="I132" s="13"/>
-      <c r="J132" s="14"/>
+      <c r="A132" s="10"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="11"/>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
@@ -5578,16 +5821,16 @@
       <c r="Z132" s="3"/>
     </row>
     <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="13"/>
-      <c r="B133" s="13"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="13"/>
-      <c r="J133" s="14"/>
+      <c r="A133" s="10"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="11"/>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
@@ -5606,16 +5849,16 @@
       <c r="Z133" s="3"/>
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="13"/>
-      <c r="B134" s="13"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13"/>
-      <c r="G134" s="13"/>
-      <c r="H134" s="13"/>
-      <c r="I134" s="13"/>
-      <c r="J134" s="14"/>
+      <c r="A134" s="10"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="11"/>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
@@ -5634,16 +5877,16 @@
       <c r="Z134" s="3"/>
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="13"/>
-      <c r="B135" s="13"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
-      <c r="E135" s="13"/>
-      <c r="F135" s="13"/>
-      <c r="G135" s="13"/>
-      <c r="H135" s="13"/>
-      <c r="I135" s="13"/>
-      <c r="J135" s="14"/>
+      <c r="A135" s="10"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="11"/>
       <c r="K135" s="3"/>
       <c r="L135" s="3"/>
       <c r="M135" s="3"/>
@@ -5662,16 +5905,16 @@
       <c r="Z135" s="3"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="13"/>
-      <c r="B136" s="13"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13"/>
-      <c r="E136" s="13"/>
-      <c r="F136" s="13"/>
-      <c r="G136" s="13"/>
-      <c r="H136" s="13"/>
-      <c r="I136" s="13"/>
-      <c r="J136" s="14"/>
+      <c r="A136" s="10"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="11"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
       <c r="M136" s="3"/>
@@ -5690,16 +5933,16 @@
       <c r="Z136" s="3"/>
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="13"/>
-      <c r="B137" s="13"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
-      <c r="H137" s="13"/>
-      <c r="I137" s="13"/>
-      <c r="J137" s="14"/>
+      <c r="A137" s="10"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="11"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
       <c r="M137" s="3"/>
@@ -5718,16 +5961,16 @@
       <c r="Z137" s="3"/>
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="13"/>
-      <c r="B138" s="13"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
-      <c r="H138" s="13"/>
-      <c r="I138" s="13"/>
-      <c r="J138" s="14"/>
+      <c r="A138" s="10"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="11"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
@@ -5746,16 +5989,16 @@
       <c r="Z138" s="3"/>
     </row>
     <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="13"/>
-      <c r="B139" s="13"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="13"/>
-      <c r="E139" s="13"/>
-      <c r="F139" s="13"/>
-      <c r="G139" s="13"/>
-      <c r="H139" s="13"/>
-      <c r="I139" s="13"/>
-      <c r="J139" s="14"/>
+      <c r="A139" s="10"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="11"/>
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
       <c r="M139" s="3"/>
@@ -5774,16 +6017,16 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="13"/>
-      <c r="B140" s="13"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="13"/>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="13"/>
-      <c r="I140" s="13"/>
-      <c r="J140" s="14"/>
+      <c r="A140" s="10"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
+      <c r="I140" s="10"/>
+      <c r="J140" s="11"/>
       <c r="K140" s="3"/>
       <c r="L140" s="3"/>
       <c r="M140" s="3"/>
@@ -5802,16 +6045,16 @@
       <c r="Z140" s="3"/>
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="13"/>
-      <c r="B141" s="13"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="13"/>
-      <c r="G141" s="13"/>
-      <c r="H141" s="13"/>
-      <c r="I141" s="13"/>
-      <c r="J141" s="14"/>
+      <c r="A141" s="10"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
+      <c r="I141" s="10"/>
+      <c r="J141" s="11"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
       <c r="M141" s="3"/>
@@ -5830,16 +6073,16 @@
       <c r="Z141" s="3"/>
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="13"/>
-      <c r="B142" s="13"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
-      <c r="H142" s="13"/>
-      <c r="I142" s="13"/>
-      <c r="J142" s="14"/>
+      <c r="A142" s="10"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="11"/>
       <c r="K142" s="3"/>
       <c r="L142" s="3"/>
       <c r="M142" s="3"/>
@@ -5858,16 +6101,16 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="13"/>
-      <c r="B143" s="13"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="13"/>
-      <c r="G143" s="13"/>
-      <c r="H143" s="13"/>
-      <c r="I143" s="13"/>
-      <c r="J143" s="14"/>
+      <c r="A143" s="10"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="11"/>
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
       <c r="M143" s="3"/>
@@ -5886,16 +6129,16 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="13"/>
-      <c r="B144" s="13"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="13"/>
-      <c r="E144" s="13"/>
-      <c r="F144" s="13"/>
-      <c r="G144" s="13"/>
-      <c r="H144" s="13"/>
-      <c r="I144" s="13"/>
-      <c r="J144" s="14"/>
+      <c r="A144" s="10"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="10"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="11"/>
       <c r="K144" s="3"/>
       <c r="L144" s="3"/>
       <c r="M144" s="3"/>
@@ -5914,16 +6157,16 @@
       <c r="Z144" s="3"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="13"/>
-      <c r="B145" s="13"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13"/>
-      <c r="G145" s="13"/>
-      <c r="H145" s="13"/>
-      <c r="I145" s="13"/>
-      <c r="J145" s="14"/>
+      <c r="A145" s="10"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="11"/>
       <c r="K145" s="3"/>
       <c r="L145" s="3"/>
       <c r="M145" s="3"/>
@@ -5942,16 +6185,16 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="13"/>
-      <c r="B146" s="13"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="13"/>
-      <c r="E146" s="13"/>
-      <c r="F146" s="13"/>
-      <c r="G146" s="13"/>
-      <c r="H146" s="13"/>
-      <c r="I146" s="13"/>
-      <c r="J146" s="14"/>
+      <c r="A146" s="10"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="10"/>
+      <c r="I146" s="10"/>
+      <c r="J146" s="11"/>
       <c r="K146" s="3"/>
       <c r="L146" s="3"/>
       <c r="M146" s="3"/>
@@ -5970,16 +6213,16 @@
       <c r="Z146" s="3"/>
     </row>
     <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="13"/>
-      <c r="B147" s="13"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
-      <c r="F147" s="13"/>
-      <c r="G147" s="13"/>
-      <c r="H147" s="13"/>
-      <c r="I147" s="13"/>
-      <c r="J147" s="14"/>
+      <c r="A147" s="10"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="11"/>
       <c r="K147" s="3"/>
       <c r="L147" s="3"/>
       <c r="M147" s="3"/>
@@ -5998,16 +6241,16 @@
       <c r="Z147" s="3"/>
     </row>
     <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="13"/>
-      <c r="B148" s="13"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="13"/>
-      <c r="F148" s="13"/>
-      <c r="G148" s="13"/>
-      <c r="H148" s="13"/>
-      <c r="I148" s="13"/>
-      <c r="J148" s="14"/>
+      <c r="A148" s="10"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+      <c r="H148" s="10"/>
+      <c r="I148" s="10"/>
+      <c r="J148" s="11"/>
       <c r="K148" s="3"/>
       <c r="L148" s="3"/>
       <c r="M148" s="3"/>
@@ -6026,16 +6269,16 @@
       <c r="Z148" s="3"/>
     </row>
     <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="13"/>
-      <c r="B149" s="13"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="13"/>
-      <c r="G149" s="13"/>
-      <c r="H149" s="13"/>
-      <c r="I149" s="13"/>
-      <c r="J149" s="14"/>
+      <c r="A149" s="10"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="10"/>
+      <c r="I149" s="10"/>
+      <c r="J149" s="11"/>
       <c r="K149" s="3"/>
       <c r="L149" s="3"/>
       <c r="M149" s="3"/>
@@ -6054,16 +6297,16 @@
       <c r="Z149" s="3"/>
     </row>
     <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="13"/>
-      <c r="B150" s="13"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="13"/>
-      <c r="F150" s="13"/>
-      <c r="G150" s="13"/>
-      <c r="H150" s="13"/>
-      <c r="I150" s="13"/>
-      <c r="J150" s="14"/>
+      <c r="A150" s="10"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="10"/>
+      <c r="I150" s="10"/>
+      <c r="J150" s="11"/>
       <c r="K150" s="3"/>
       <c r="L150" s="3"/>
       <c r="M150" s="3"/>
@@ -6082,16 +6325,16 @@
       <c r="Z150" s="3"/>
     </row>
     <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="13"/>
-      <c r="B151" s="13"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13"/>
-      <c r="G151" s="13"/>
-      <c r="H151" s="13"/>
-      <c r="I151" s="13"/>
-      <c r="J151" s="14"/>
+      <c r="A151" s="10"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="10"/>
+      <c r="I151" s="10"/>
+      <c r="J151" s="11"/>
       <c r="K151" s="3"/>
       <c r="L151" s="3"/>
       <c r="M151" s="3"/>
@@ -6110,16 +6353,16 @@
       <c r="Z151" s="3"/>
     </row>
     <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="13"/>
-      <c r="B152" s="13"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="13"/>
-      <c r="E152" s="13"/>
-      <c r="F152" s="13"/>
-      <c r="G152" s="13"/>
-      <c r="H152" s="13"/>
-      <c r="I152" s="13"/>
-      <c r="J152" s="14"/>
+      <c r="A152" s="10"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
+      <c r="I152" s="10"/>
+      <c r="J152" s="11"/>
       <c r="K152" s="3"/>
       <c r="L152" s="3"/>
       <c r="M152" s="3"/>
@@ -6138,16 +6381,16 @@
       <c r="Z152" s="3"/>
     </row>
     <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="13"/>
-      <c r="B153" s="13"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
-      <c r="E153" s="13"/>
-      <c r="F153" s="13"/>
-      <c r="G153" s="13"/>
-      <c r="H153" s="13"/>
-      <c r="I153" s="13"/>
-      <c r="J153" s="14"/>
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
+      <c r="I153" s="10"/>
+      <c r="J153" s="11"/>
       <c r="K153" s="3"/>
       <c r="L153" s="3"/>
       <c r="M153" s="3"/>
@@ -6166,16 +6409,16 @@
       <c r="Z153" s="3"/>
     </row>
     <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="13"/>
-      <c r="B154" s="13"/>
-      <c r="C154" s="13"/>
-      <c r="D154" s="13"/>
-      <c r="E154" s="13"/>
-      <c r="F154" s="13"/>
-      <c r="G154" s="13"/>
-      <c r="H154" s="13"/>
-      <c r="I154" s="13"/>
-      <c r="J154" s="14"/>
+      <c r="A154" s="10"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="10"/>
+      <c r="J154" s="11"/>
       <c r="K154" s="3"/>
       <c r="L154" s="3"/>
       <c r="M154" s="3"/>
@@ -6194,16 +6437,16 @@
       <c r="Z154" s="3"/>
     </row>
     <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="13"/>
-      <c r="B155" s="13"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="13"/>
-      <c r="F155" s="13"/>
-      <c r="G155" s="13"/>
-      <c r="H155" s="13"/>
-      <c r="I155" s="13"/>
-      <c r="J155" s="14"/>
+      <c r="A155" s="10"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="11"/>
       <c r="K155" s="3"/>
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
@@ -6222,16 +6465,16 @@
       <c r="Z155" s="3"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="13"/>
-      <c r="B156" s="13"/>
-      <c r="C156" s="13"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="13"/>
-      <c r="G156" s="13"/>
-      <c r="H156" s="13"/>
-      <c r="I156" s="13"/>
-      <c r="J156" s="14"/>
+      <c r="A156" s="10"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+      <c r="I156" s="10"/>
+      <c r="J156" s="11"/>
       <c r="K156" s="3"/>
       <c r="L156" s="3"/>
       <c r="M156" s="3"/>
@@ -6250,16 +6493,16 @@
       <c r="Z156" s="3"/>
     </row>
     <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="13"/>
-      <c r="B157" s="13"/>
-      <c r="C157" s="13"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="13"/>
-      <c r="F157" s="13"/>
-      <c r="G157" s="13"/>
-      <c r="H157" s="13"/>
-      <c r="I157" s="13"/>
-      <c r="J157" s="14"/>
+      <c r="A157" s="10"/>
+      <c r="B157" s="10"/>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="10"/>
+      <c r="I157" s="10"/>
+      <c r="J157" s="11"/>
       <c r="K157" s="3"/>
       <c r="L157" s="3"/>
       <c r="M157" s="3"/>
@@ -6278,16 +6521,16 @@
       <c r="Z157" s="3"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="13"/>
-      <c r="B158" s="13"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="13"/>
-      <c r="F158" s="13"/>
-      <c r="G158" s="13"/>
-      <c r="H158" s="13"/>
-      <c r="I158" s="13"/>
-      <c r="J158" s="14"/>
+      <c r="A158" s="10"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="10"/>
+      <c r="I158" s="10"/>
+      <c r="J158" s="11"/>
       <c r="K158" s="3"/>
       <c r="L158" s="3"/>
       <c r="M158" s="3"/>
@@ -6306,16 +6549,16 @@
       <c r="Z158" s="3"/>
     </row>
     <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="13"/>
-      <c r="B159" s="13"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="13"/>
-      <c r="E159" s="13"/>
-      <c r="F159" s="13"/>
-      <c r="G159" s="13"/>
-      <c r="H159" s="13"/>
-      <c r="I159" s="13"/>
-      <c r="J159" s="14"/>
+      <c r="A159" s="10"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="10"/>
+      <c r="I159" s="10"/>
+      <c r="J159" s="11"/>
       <c r="K159" s="3"/>
       <c r="L159" s="3"/>
       <c r="M159" s="3"/>
@@ -6334,16 +6577,16 @@
       <c r="Z159" s="3"/>
     </row>
     <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="13"/>
-      <c r="B160" s="13"/>
-      <c r="C160" s="13"/>
-      <c r="D160" s="13"/>
-      <c r="E160" s="13"/>
-      <c r="F160" s="13"/>
-      <c r="G160" s="13"/>
-      <c r="H160" s="13"/>
-      <c r="I160" s="13"/>
-      <c r="J160" s="14"/>
+      <c r="A160" s="10"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="10"/>
+      <c r="I160" s="10"/>
+      <c r="J160" s="11"/>
       <c r="K160" s="3"/>
       <c r="L160" s="3"/>
       <c r="M160" s="3"/>
@@ -6362,16 +6605,16 @@
       <c r="Z160" s="3"/>
     </row>
     <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="13"/>
-      <c r="B161" s="13"/>
-      <c r="C161" s="13"/>
-      <c r="D161" s="13"/>
-      <c r="E161" s="13"/>
-      <c r="F161" s="13"/>
-      <c r="G161" s="13"/>
-      <c r="H161" s="13"/>
-      <c r="I161" s="13"/>
-      <c r="J161" s="14"/>
+      <c r="A161" s="10"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="10"/>
+      <c r="I161" s="10"/>
+      <c r="J161" s="11"/>
       <c r="K161" s="3"/>
       <c r="L161" s="3"/>
       <c r="M161" s="3"/>
@@ -6390,16 +6633,16 @@
       <c r="Z161" s="3"/>
     </row>
     <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="13"/>
-      <c r="B162" s="13"/>
-      <c r="C162" s="13"/>
-      <c r="D162" s="13"/>
-      <c r="E162" s="13"/>
-      <c r="F162" s="13"/>
-      <c r="G162" s="13"/>
-      <c r="H162" s="13"/>
-      <c r="I162" s="13"/>
-      <c r="J162" s="14"/>
+      <c r="A162" s="10"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
+      <c r="H162" s="10"/>
+      <c r="I162" s="10"/>
+      <c r="J162" s="11"/>
       <c r="K162" s="3"/>
       <c r="L162" s="3"/>
       <c r="M162" s="3"/>
@@ -6418,16 +6661,16 @@
       <c r="Z162" s="3"/>
     </row>
     <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="13"/>
-      <c r="B163" s="13"/>
-      <c r="C163" s="13"/>
-      <c r="D163" s="13"/>
-      <c r="E163" s="13"/>
-      <c r="F163" s="13"/>
-      <c r="G163" s="13"/>
-      <c r="H163" s="13"/>
-      <c r="I163" s="13"/>
-      <c r="J163" s="14"/>
+      <c r="A163" s="10"/>
+      <c r="B163" s="10"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="10"/>
+      <c r="I163" s="10"/>
+      <c r="J163" s="11"/>
       <c r="K163" s="3"/>
       <c r="L163" s="3"/>
       <c r="M163" s="3"/>
@@ -6446,16 +6689,16 @@
       <c r="Z163" s="3"/>
     </row>
     <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="13"/>
-      <c r="B164" s="13"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="13"/>
-      <c r="E164" s="13"/>
-      <c r="F164" s="13"/>
-      <c r="G164" s="13"/>
-      <c r="H164" s="13"/>
-      <c r="I164" s="13"/>
-      <c r="J164" s="14"/>
+      <c r="A164" s="10"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="10"/>
+      <c r="I164" s="10"/>
+      <c r="J164" s="11"/>
       <c r="K164" s="3"/>
       <c r="L164" s="3"/>
       <c r="M164" s="3"/>
@@ -6474,16 +6717,16 @@
       <c r="Z164" s="3"/>
     </row>
     <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="13"/>
-      <c r="B165" s="13"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="13"/>
-      <c r="G165" s="13"/>
-      <c r="H165" s="13"/>
-      <c r="I165" s="13"/>
-      <c r="J165" s="14"/>
+      <c r="A165" s="10"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="10"/>
+      <c r="I165" s="10"/>
+      <c r="J165" s="11"/>
       <c r="K165" s="3"/>
       <c r="L165" s="3"/>
       <c r="M165" s="3"/>
@@ -6502,16 +6745,16 @@
       <c r="Z165" s="3"/>
     </row>
     <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="13"/>
-      <c r="B166" s="13"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="13"/>
-      <c r="F166" s="13"/>
-      <c r="G166" s="13"/>
-      <c r="H166" s="13"/>
-      <c r="I166" s="13"/>
-      <c r="J166" s="14"/>
+      <c r="A166" s="10"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="10"/>
+      <c r="J166" s="11"/>
       <c r="K166" s="3"/>
       <c r="L166" s="3"/>
       <c r="M166" s="3"/>
@@ -6530,16 +6773,16 @@
       <c r="Z166" s="3"/>
     </row>
     <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="13"/>
-      <c r="B167" s="13"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="13"/>
-      <c r="E167" s="13"/>
-      <c r="F167" s="13"/>
-      <c r="G167" s="13"/>
-      <c r="H167" s="13"/>
-      <c r="I167" s="13"/>
-      <c r="J167" s="14"/>
+      <c r="A167" s="10"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
+      <c r="H167" s="10"/>
+      <c r="I167" s="10"/>
+      <c r="J167" s="11"/>
       <c r="K167" s="3"/>
       <c r="L167" s="3"/>
       <c r="M167" s="3"/>
@@ -6558,16 +6801,16 @@
       <c r="Z167" s="3"/>
     </row>
     <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="13"/>
-      <c r="B168" s="13"/>
-      <c r="C168" s="13"/>
-      <c r="D168" s="13"/>
-      <c r="E168" s="13"/>
-      <c r="F168" s="13"/>
-      <c r="G168" s="13"/>
-      <c r="H168" s="13"/>
-      <c r="I168" s="13"/>
-      <c r="J168" s="14"/>
+      <c r="A168" s="10"/>
+      <c r="B168" s="10"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
+      <c r="H168" s="10"/>
+      <c r="I168" s="10"/>
+      <c r="J168" s="11"/>
       <c r="K168" s="3"/>
       <c r="L168" s="3"/>
       <c r="M168" s="3"/>
@@ -6586,16 +6829,16 @@
       <c r="Z168" s="3"/>
     </row>
     <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="13"/>
-      <c r="B169" s="13"/>
-      <c r="C169" s="13"/>
-      <c r="D169" s="13"/>
-      <c r="E169" s="13"/>
-      <c r="F169" s="13"/>
-      <c r="G169" s="13"/>
-      <c r="H169" s="13"/>
-      <c r="I169" s="13"/>
-      <c r="J169" s="14"/>
+      <c r="A169" s="10"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="10"/>
+      <c r="I169" s="10"/>
+      <c r="J169" s="11"/>
       <c r="K169" s="3"/>
       <c r="L169" s="3"/>
       <c r="M169" s="3"/>
@@ -6614,16 +6857,16 @@
       <c r="Z169" s="3"/>
     </row>
     <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="13"/>
-      <c r="B170" s="13"/>
-      <c r="C170" s="13"/>
-      <c r="D170" s="13"/>
-      <c r="E170" s="13"/>
-      <c r="F170" s="13"/>
-      <c r="G170" s="13"/>
-      <c r="H170" s="13"/>
-      <c r="I170" s="13"/>
-      <c r="J170" s="14"/>
+      <c r="A170" s="10"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
+      <c r="H170" s="10"/>
+      <c r="I170" s="10"/>
+      <c r="J170" s="11"/>
       <c r="K170" s="3"/>
       <c r="L170" s="3"/>
       <c r="M170" s="3"/>
@@ -6642,16 +6885,16 @@
       <c r="Z170" s="3"/>
     </row>
     <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="13"/>
-      <c r="B171" s="13"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="13"/>
-      <c r="G171" s="13"/>
-      <c r="H171" s="13"/>
-      <c r="I171" s="13"/>
-      <c r="J171" s="14"/>
+      <c r="A171" s="10"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
+      <c r="H171" s="10"/>
+      <c r="I171" s="10"/>
+      <c r="J171" s="11"/>
       <c r="K171" s="3"/>
       <c r="L171" s="3"/>
       <c r="M171" s="3"/>
@@ -6670,16 +6913,16 @@
       <c r="Z171" s="3"/>
     </row>
     <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="13"/>
-      <c r="B172" s="13"/>
-      <c r="C172" s="13"/>
-      <c r="D172" s="13"/>
-      <c r="E172" s="13"/>
-      <c r="F172" s="13"/>
-      <c r="G172" s="13"/>
-      <c r="H172" s="13"/>
-      <c r="I172" s="13"/>
-      <c r="J172" s="14"/>
+      <c r="A172" s="10"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
+      <c r="H172" s="10"/>
+      <c r="I172" s="10"/>
+      <c r="J172" s="11"/>
       <c r="K172" s="3"/>
       <c r="L172" s="3"/>
       <c r="M172" s="3"/>
@@ -6698,16 +6941,16 @@
       <c r="Z172" s="3"/>
     </row>
     <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="13"/>
-      <c r="B173" s="13"/>
-      <c r="C173" s="13"/>
-      <c r="D173" s="13"/>
-      <c r="E173" s="13"/>
-      <c r="F173" s="13"/>
-      <c r="G173" s="13"/>
-      <c r="H173" s="13"/>
-      <c r="I173" s="13"/>
-      <c r="J173" s="14"/>
+      <c r="A173" s="10"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="10"/>
+      <c r="I173" s="10"/>
+      <c r="J173" s="11"/>
       <c r="K173" s="3"/>
       <c r="L173" s="3"/>
       <c r="M173" s="3"/>
@@ -6726,16 +6969,16 @@
       <c r="Z173" s="3"/>
     </row>
     <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="13"/>
-      <c r="B174" s="13"/>
-      <c r="C174" s="13"/>
-      <c r="D174" s="13"/>
-      <c r="E174" s="13"/>
-      <c r="F174" s="13"/>
-      <c r="G174" s="13"/>
-      <c r="H174" s="13"/>
-      <c r="I174" s="13"/>
-      <c r="J174" s="14"/>
+      <c r="A174" s="10"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="10"/>
+      <c r="I174" s="10"/>
+      <c r="J174" s="11"/>
       <c r="K174" s="3"/>
       <c r="L174" s="3"/>
       <c r="M174" s="3"/>
@@ -6754,16 +6997,16 @@
       <c r="Z174" s="3"/>
     </row>
     <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="13"/>
-      <c r="B175" s="13"/>
-      <c r="C175" s="13"/>
-      <c r="D175" s="13"/>
-      <c r="E175" s="13"/>
-      <c r="F175" s="13"/>
-      <c r="G175" s="13"/>
-      <c r="H175" s="13"/>
-      <c r="I175" s="13"/>
-      <c r="J175" s="14"/>
+      <c r="A175" s="10"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
+      <c r="H175" s="10"/>
+      <c r="I175" s="10"/>
+      <c r="J175" s="11"/>
       <c r="K175" s="3"/>
       <c r="L175" s="3"/>
       <c r="M175" s="3"/>
@@ -6782,16 +7025,16 @@
       <c r="Z175" s="3"/>
     </row>
     <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="13"/>
-      <c r="B176" s="13"/>
-      <c r="C176" s="13"/>
-      <c r="D176" s="13"/>
-      <c r="E176" s="13"/>
-      <c r="F176" s="13"/>
-      <c r="G176" s="13"/>
-      <c r="H176" s="13"/>
-      <c r="I176" s="13"/>
-      <c r="J176" s="14"/>
+      <c r="A176" s="10"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
+      <c r="H176" s="10"/>
+      <c r="I176" s="10"/>
+      <c r="J176" s="11"/>
       <c r="K176" s="3"/>
       <c r="L176" s="3"/>
       <c r="M176" s="3"/>
@@ -6810,16 +7053,16 @@
       <c r="Z176" s="3"/>
     </row>
     <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="13"/>
-      <c r="B177" s="13"/>
-      <c r="C177" s="13"/>
-      <c r="D177" s="13"/>
-      <c r="E177" s="13"/>
-      <c r="F177" s="13"/>
-      <c r="G177" s="13"/>
-      <c r="H177" s="13"/>
-      <c r="I177" s="13"/>
-      <c r="J177" s="14"/>
+      <c r="A177" s="10"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
+      <c r="H177" s="10"/>
+      <c r="I177" s="10"/>
+      <c r="J177" s="11"/>
       <c r="K177" s="3"/>
       <c r="L177" s="3"/>
       <c r="M177" s="3"/>
@@ -6838,16 +7081,16 @@
       <c r="Z177" s="3"/>
     </row>
     <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="13"/>
-      <c r="B178" s="13"/>
-      <c r="C178" s="13"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="13"/>
-      <c r="F178" s="13"/>
-      <c r="G178" s="13"/>
-      <c r="H178" s="13"/>
-      <c r="I178" s="13"/>
-      <c r="J178" s="14"/>
+      <c r="A178" s="10"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="10"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10"/>
+      <c r="H178" s="10"/>
+      <c r="I178" s="10"/>
+      <c r="J178" s="11"/>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
       <c r="M178" s="3"/>
@@ -6866,16 +7109,16 @@
       <c r="Z178" s="3"/>
     </row>
     <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="13"/>
-      <c r="B179" s="13"/>
-      <c r="C179" s="13"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="13"/>
-      <c r="F179" s="13"/>
-      <c r="G179" s="13"/>
-      <c r="H179" s="13"/>
-      <c r="I179" s="13"/>
-      <c r="J179" s="14"/>
+      <c r="A179" s="10"/>
+      <c r="B179" s="10"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
+      <c r="H179" s="10"/>
+      <c r="I179" s="10"/>
+      <c r="J179" s="11"/>
       <c r="K179" s="3"/>
       <c r="L179" s="3"/>
       <c r="M179" s="3"/>
@@ -6894,16 +7137,16 @@
       <c r="Z179" s="3"/>
     </row>
     <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="13"/>
-      <c r="B180" s="13"/>
-      <c r="C180" s="13"/>
-      <c r="D180" s="13"/>
-      <c r="E180" s="13"/>
-      <c r="F180" s="13"/>
-      <c r="G180" s="13"/>
-      <c r="H180" s="13"/>
-      <c r="I180" s="13"/>
-      <c r="J180" s="14"/>
+      <c r="A180" s="10"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
+      <c r="H180" s="10"/>
+      <c r="I180" s="10"/>
+      <c r="J180" s="11"/>
       <c r="K180" s="3"/>
       <c r="L180" s="3"/>
       <c r="M180" s="3"/>
@@ -6922,16 +7165,16 @@
       <c r="Z180" s="3"/>
     </row>
     <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="13"/>
-      <c r="B181" s="13"/>
-      <c r="C181" s="13"/>
-      <c r="D181" s="13"/>
-      <c r="E181" s="13"/>
-      <c r="F181" s="13"/>
-      <c r="G181" s="13"/>
-      <c r="H181" s="13"/>
-      <c r="I181" s="13"/>
-      <c r="J181" s="14"/>
+      <c r="A181" s="10"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10"/>
+      <c r="H181" s="10"/>
+      <c r="I181" s="10"/>
+      <c r="J181" s="11"/>
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
       <c r="M181" s="3"/>
@@ -6950,16 +7193,16 @@
       <c r="Z181" s="3"/>
     </row>
     <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="13"/>
-      <c r="B182" s="13"/>
-      <c r="C182" s="13"/>
-      <c r="D182" s="13"/>
-      <c r="E182" s="13"/>
-      <c r="F182" s="13"/>
-      <c r="G182" s="13"/>
-      <c r="H182" s="13"/>
-      <c r="I182" s="13"/>
-      <c r="J182" s="14"/>
+      <c r="A182" s="10"/>
+      <c r="B182" s="10"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10"/>
+      <c r="H182" s="10"/>
+      <c r="I182" s="10"/>
+      <c r="J182" s="11"/>
       <c r="K182" s="3"/>
       <c r="L182" s="3"/>
       <c r="M182" s="3"/>
@@ -6978,16 +7221,16 @@
       <c r="Z182" s="3"/>
     </row>
     <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="13"/>
-      <c r="B183" s="13"/>
-      <c r="C183" s="13"/>
-      <c r="D183" s="13"/>
-      <c r="E183" s="13"/>
-      <c r="F183" s="13"/>
-      <c r="G183" s="13"/>
-      <c r="H183" s="13"/>
-      <c r="I183" s="13"/>
-      <c r="J183" s="14"/>
+      <c r="A183" s="10"/>
+      <c r="B183" s="10"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="10"/>
+      <c r="H183" s="10"/>
+      <c r="I183" s="10"/>
+      <c r="J183" s="11"/>
       <c r="K183" s="3"/>
       <c r="L183" s="3"/>
       <c r="M183" s="3"/>
@@ -7006,16 +7249,16 @@
       <c r="Z183" s="3"/>
     </row>
     <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="13"/>
-      <c r="B184" s="13"/>
-      <c r="C184" s="13"/>
-      <c r="D184" s="13"/>
-      <c r="E184" s="13"/>
-      <c r="F184" s="13"/>
-      <c r="G184" s="13"/>
-      <c r="H184" s="13"/>
-      <c r="I184" s="13"/>
-      <c r="J184" s="14"/>
+      <c r="A184" s="10"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="10"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="10"/>
+      <c r="H184" s="10"/>
+      <c r="I184" s="10"/>
+      <c r="J184" s="11"/>
       <c r="K184" s="3"/>
       <c r="L184" s="3"/>
       <c r="M184" s="3"/>
@@ -7034,16 +7277,16 @@
       <c r="Z184" s="3"/>
     </row>
     <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="13"/>
-      <c r="B185" s="13"/>
-      <c r="C185" s="13"/>
-      <c r="D185" s="13"/>
-      <c r="E185" s="13"/>
-      <c r="F185" s="13"/>
-      <c r="G185" s="13"/>
-      <c r="H185" s="13"/>
-      <c r="I185" s="13"/>
-      <c r="J185" s="14"/>
+      <c r="A185" s="10"/>
+      <c r="B185" s="10"/>
+      <c r="C185" s="10"/>
+      <c r="D185" s="10"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="10"/>
+      <c r="G185" s="10"/>
+      <c r="H185" s="10"/>
+      <c r="I185" s="10"/>
+      <c r="J185" s="11"/>
       <c r="K185" s="3"/>
       <c r="L185" s="3"/>
       <c r="M185" s="3"/>
@@ -7062,16 +7305,16 @@
       <c r="Z185" s="3"/>
     </row>
     <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="13"/>
-      <c r="B186" s="13"/>
-      <c r="C186" s="13"/>
-      <c r="D186" s="13"/>
-      <c r="E186" s="13"/>
-      <c r="F186" s="13"/>
-      <c r="G186" s="13"/>
-      <c r="H186" s="13"/>
-      <c r="I186" s="13"/>
-      <c r="J186" s="14"/>
+      <c r="A186" s="10"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="10"/>
+      <c r="D186" s="10"/>
+      <c r="E186" s="10"/>
+      <c r="F186" s="10"/>
+      <c r="G186" s="10"/>
+      <c r="H186" s="10"/>
+      <c r="I186" s="10"/>
+      <c r="J186" s="11"/>
       <c r="K186" s="3"/>
       <c r="L186" s="3"/>
       <c r="M186" s="3"/>
@@ -7090,16 +7333,16 @@
       <c r="Z186" s="3"/>
     </row>
     <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="13"/>
-      <c r="B187" s="13"/>
-      <c r="C187" s="13"/>
-      <c r="D187" s="13"/>
-      <c r="E187" s="13"/>
-      <c r="F187" s="13"/>
-      <c r="G187" s="13"/>
-      <c r="H187" s="13"/>
-      <c r="I187" s="13"/>
-      <c r="J187" s="14"/>
+      <c r="A187" s="10"/>
+      <c r="B187" s="10"/>
+      <c r="C187" s="10"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="10"/>
+      <c r="H187" s="10"/>
+      <c r="I187" s="10"/>
+      <c r="J187" s="11"/>
       <c r="K187" s="3"/>
       <c r="L187" s="3"/>
       <c r="M187" s="3"/>
@@ -7118,16 +7361,16 @@
       <c r="Z187" s="3"/>
     </row>
     <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="13"/>
-      <c r="B188" s="13"/>
-      <c r="C188" s="13"/>
-      <c r="D188" s="13"/>
-      <c r="E188" s="13"/>
-      <c r="F188" s="13"/>
-      <c r="G188" s="13"/>
-      <c r="H188" s="13"/>
-      <c r="I188" s="13"/>
-      <c r="J188" s="14"/>
+      <c r="A188" s="10"/>
+      <c r="B188" s="10"/>
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="10"/>
+      <c r="H188" s="10"/>
+      <c r="I188" s="10"/>
+      <c r="J188" s="11"/>
       <c r="K188" s="3"/>
       <c r="L188" s="3"/>
       <c r="M188" s="3"/>
@@ -7146,16 +7389,16 @@
       <c r="Z188" s="3"/>
     </row>
     <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="13"/>
-      <c r="B189" s="13"/>
-      <c r="C189" s="13"/>
-      <c r="D189" s="13"/>
-      <c r="E189" s="13"/>
-      <c r="F189" s="13"/>
-      <c r="G189" s="13"/>
-      <c r="H189" s="13"/>
-      <c r="I189" s="13"/>
-      <c r="J189" s="14"/>
+      <c r="A189" s="10"/>
+      <c r="B189" s="10"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="10"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="10"/>
+      <c r="H189" s="10"/>
+      <c r="I189" s="10"/>
+      <c r="J189" s="11"/>
       <c r="K189" s="3"/>
       <c r="L189" s="3"/>
       <c r="M189" s="3"/>
@@ -7174,16 +7417,16 @@
       <c r="Z189" s="3"/>
     </row>
     <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="13"/>
-      <c r="B190" s="13"/>
-      <c r="C190" s="13"/>
-      <c r="D190" s="13"/>
-      <c r="E190" s="13"/>
-      <c r="F190" s="13"/>
-      <c r="G190" s="13"/>
-      <c r="H190" s="13"/>
-      <c r="I190" s="13"/>
-      <c r="J190" s="14"/>
+      <c r="A190" s="10"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
+      <c r="H190" s="10"/>
+      <c r="I190" s="10"/>
+      <c r="J190" s="11"/>
       <c r="K190" s="3"/>
       <c r="L190" s="3"/>
       <c r="M190" s="3"/>
@@ -7202,16 +7445,16 @@
       <c r="Z190" s="3"/>
     </row>
     <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="13"/>
-      <c r="B191" s="13"/>
-      <c r="C191" s="13"/>
-      <c r="D191" s="13"/>
-      <c r="E191" s="13"/>
-      <c r="F191" s="13"/>
-      <c r="G191" s="13"/>
-      <c r="H191" s="13"/>
-      <c r="I191" s="13"/>
-      <c r="J191" s="14"/>
+      <c r="A191" s="10"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
+      <c r="H191" s="10"/>
+      <c r="I191" s="10"/>
+      <c r="J191" s="11"/>
       <c r="K191" s="3"/>
       <c r="L191" s="3"/>
       <c r="M191" s="3"/>
@@ -7230,16 +7473,16 @@
       <c r="Z191" s="3"/>
     </row>
     <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="13"/>
-      <c r="B192" s="13"/>
-      <c r="C192" s="13"/>
-      <c r="D192" s="13"/>
-      <c r="E192" s="13"/>
-      <c r="F192" s="13"/>
-      <c r="G192" s="13"/>
-      <c r="H192" s="13"/>
-      <c r="I192" s="13"/>
-      <c r="J192" s="14"/>
+      <c r="A192" s="10"/>
+      <c r="B192" s="10"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
+      <c r="H192" s="10"/>
+      <c r="I192" s="10"/>
+      <c r="J192" s="11"/>
       <c r="K192" s="3"/>
       <c r="L192" s="3"/>
       <c r="M192" s="3"/>
@@ -7258,16 +7501,16 @@
       <c r="Z192" s="3"/>
     </row>
     <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="13"/>
-      <c r="B193" s="13"/>
-      <c r="C193" s="13"/>
-      <c r="D193" s="13"/>
-      <c r="E193" s="13"/>
-      <c r="F193" s="13"/>
-      <c r="G193" s="13"/>
-      <c r="H193" s="13"/>
-      <c r="I193" s="13"/>
-      <c r="J193" s="14"/>
+      <c r="A193" s="10"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
+      <c r="H193" s="10"/>
+      <c r="I193" s="10"/>
+      <c r="J193" s="11"/>
       <c r="K193" s="3"/>
       <c r="L193" s="3"/>
       <c r="M193" s="3"/>
@@ -7286,16 +7529,16 @@
       <c r="Z193" s="3"/>
     </row>
     <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="13"/>
-      <c r="B194" s="13"/>
-      <c r="C194" s="13"/>
-      <c r="D194" s="13"/>
-      <c r="E194" s="13"/>
-      <c r="F194" s="13"/>
-      <c r="G194" s="13"/>
-      <c r="H194" s="13"/>
-      <c r="I194" s="13"/>
-      <c r="J194" s="14"/>
+      <c r="A194" s="10"/>
+      <c r="B194" s="10"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="10"/>
+      <c r="H194" s="10"/>
+      <c r="I194" s="10"/>
+      <c r="J194" s="11"/>
       <c r="K194" s="3"/>
       <c r="L194" s="3"/>
       <c r="M194" s="3"/>
@@ -7314,16 +7557,16 @@
       <c r="Z194" s="3"/>
     </row>
     <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="13"/>
-      <c r="B195" s="13"/>
-      <c r="C195" s="13"/>
-      <c r="D195" s="13"/>
-      <c r="E195" s="13"/>
-      <c r="F195" s="13"/>
-      <c r="G195" s="13"/>
-      <c r="H195" s="13"/>
-      <c r="I195" s="13"/>
-      <c r="J195" s="14"/>
+      <c r="A195" s="10"/>
+      <c r="B195" s="10"/>
+      <c r="C195" s="10"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="10"/>
+      <c r="H195" s="10"/>
+      <c r="I195" s="10"/>
+      <c r="J195" s="11"/>
       <c r="K195" s="3"/>
       <c r="L195" s="3"/>
       <c r="M195" s="3"/>
@@ -7342,16 +7585,16 @@
       <c r="Z195" s="3"/>
     </row>
     <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="13"/>
-      <c r="B196" s="13"/>
-      <c r="C196" s="13"/>
-      <c r="D196" s="13"/>
-      <c r="E196" s="13"/>
-      <c r="F196" s="13"/>
-      <c r="G196" s="13"/>
-      <c r="H196" s="13"/>
-      <c r="I196" s="13"/>
-      <c r="J196" s="14"/>
+      <c r="A196" s="10"/>
+      <c r="B196" s="10"/>
+      <c r="C196" s="10"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10"/>
+      <c r="H196" s="10"/>
+      <c r="I196" s="10"/>
+      <c r="J196" s="11"/>
       <c r="K196" s="3"/>
       <c r="L196" s="3"/>
       <c r="M196" s="3"/>
@@ -7370,16 +7613,16 @@
       <c r="Z196" s="3"/>
     </row>
     <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="13"/>
-      <c r="B197" s="13"/>
-      <c r="C197" s="13"/>
-      <c r="D197" s="13"/>
-      <c r="E197" s="13"/>
-      <c r="F197" s="13"/>
-      <c r="G197" s="13"/>
-      <c r="H197" s="13"/>
-      <c r="I197" s="13"/>
-      <c r="J197" s="14"/>
+      <c r="A197" s="10"/>
+      <c r="B197" s="10"/>
+      <c r="C197" s="10"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="10"/>
+      <c r="G197" s="10"/>
+      <c r="H197" s="10"/>
+      <c r="I197" s="10"/>
+      <c r="J197" s="11"/>
       <c r="K197" s="3"/>
       <c r="L197" s="3"/>
       <c r="M197" s="3"/>
@@ -7398,16 +7641,16 @@
       <c r="Z197" s="3"/>
     </row>
     <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="13"/>
-      <c r="B198" s="13"/>
-      <c r="C198" s="13"/>
-      <c r="D198" s="13"/>
-      <c r="E198" s="13"/>
-      <c r="F198" s="13"/>
-      <c r="G198" s="13"/>
-      <c r="H198" s="13"/>
-      <c r="I198" s="13"/>
-      <c r="J198" s="14"/>
+      <c r="A198" s="10"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="10"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="10"/>
+      <c r="F198" s="10"/>
+      <c r="G198" s="10"/>
+      <c r="H198" s="10"/>
+      <c r="I198" s="10"/>
+      <c r="J198" s="11"/>
       <c r="K198" s="3"/>
       <c r="L198" s="3"/>
       <c r="M198" s="3"/>
@@ -7426,16 +7669,16 @@
       <c r="Z198" s="3"/>
     </row>
     <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="13"/>
-      <c r="B199" s="13"/>
-      <c r="C199" s="13"/>
-      <c r="D199" s="13"/>
-      <c r="E199" s="13"/>
-      <c r="F199" s="13"/>
-      <c r="G199" s="13"/>
-      <c r="H199" s="13"/>
-      <c r="I199" s="13"/>
-      <c r="J199" s="14"/>
+      <c r="A199" s="10"/>
+      <c r="B199" s="10"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="10"/>
+      <c r="H199" s="10"/>
+      <c r="I199" s="10"/>
+      <c r="J199" s="11"/>
       <c r="K199" s="3"/>
       <c r="L199" s="3"/>
       <c r="M199" s="3"/>
@@ -7454,16 +7697,16 @@
       <c r="Z199" s="3"/>
     </row>
     <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="13"/>
-      <c r="B200" s="13"/>
-      <c r="C200" s="13"/>
-      <c r="D200" s="13"/>
-      <c r="E200" s="13"/>
-      <c r="F200" s="13"/>
-      <c r="G200" s="13"/>
-      <c r="H200" s="13"/>
-      <c r="I200" s="13"/>
-      <c r="J200" s="14"/>
+      <c r="A200" s="10"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
+      <c r="H200" s="10"/>
+      <c r="I200" s="10"/>
+      <c r="J200" s="11"/>
       <c r="K200" s="3"/>
       <c r="L200" s="3"/>
       <c r="M200" s="3"/>
@@ -7482,16 +7725,16 @@
       <c r="Z200" s="3"/>
     </row>
     <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="13"/>
-      <c r="B201" s="13"/>
-      <c r="C201" s="13"/>
-      <c r="D201" s="13"/>
-      <c r="E201" s="13"/>
-      <c r="F201" s="13"/>
-      <c r="G201" s="13"/>
-      <c r="H201" s="13"/>
-      <c r="I201" s="13"/>
-      <c r="J201" s="14"/>
+      <c r="A201" s="10"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
+      <c r="H201" s="10"/>
+      <c r="I201" s="10"/>
+      <c r="J201" s="11"/>
       <c r="K201" s="3"/>
       <c r="L201" s="3"/>
       <c r="M201" s="3"/>
@@ -7510,16 +7753,16 @@
       <c r="Z201" s="3"/>
     </row>
     <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="13"/>
-      <c r="B202" s="13"/>
-      <c r="C202" s="13"/>
-      <c r="D202" s="13"/>
-      <c r="E202" s="13"/>
-      <c r="F202" s="13"/>
-      <c r="G202" s="13"/>
-      <c r="H202" s="13"/>
-      <c r="I202" s="13"/>
-      <c r="J202" s="14"/>
+      <c r="A202" s="10"/>
+      <c r="B202" s="10"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="10"/>
+      <c r="E202" s="10"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="10"/>
+      <c r="H202" s="10"/>
+      <c r="I202" s="10"/>
+      <c r="J202" s="11"/>
       <c r="K202" s="3"/>
       <c r="L202" s="3"/>
       <c r="M202" s="3"/>
@@ -7538,16 +7781,16 @@
       <c r="Z202" s="3"/>
     </row>
     <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="13"/>
-      <c r="B203" s="13"/>
-      <c r="C203" s="13"/>
-      <c r="D203" s="13"/>
-      <c r="E203" s="13"/>
-      <c r="F203" s="13"/>
-      <c r="G203" s="13"/>
-      <c r="H203" s="13"/>
-      <c r="I203" s="13"/>
-      <c r="J203" s="14"/>
+      <c r="A203" s="10"/>
+      <c r="B203" s="10"/>
+      <c r="C203" s="10"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="10"/>
+      <c r="H203" s="10"/>
+      <c r="I203" s="10"/>
+      <c r="J203" s="11"/>
       <c r="K203" s="3"/>
       <c r="L203" s="3"/>
       <c r="M203" s="3"/>
@@ -7566,16 +7809,16 @@
       <c r="Z203" s="3"/>
     </row>
     <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="13"/>
-      <c r="B204" s="13"/>
-      <c r="C204" s="13"/>
-      <c r="D204" s="13"/>
-      <c r="E204" s="13"/>
-      <c r="F204" s="13"/>
-      <c r="G204" s="13"/>
-      <c r="H204" s="13"/>
-      <c r="I204" s="13"/>
-      <c r="J204" s="14"/>
+      <c r="A204" s="10"/>
+      <c r="B204" s="10"/>
+      <c r="C204" s="10"/>
+      <c r="D204" s="10"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="10"/>
+      <c r="H204" s="10"/>
+      <c r="I204" s="10"/>
+      <c r="J204" s="11"/>
       <c r="K204" s="3"/>
       <c r="L204" s="3"/>
       <c r="M204" s="3"/>
@@ -7594,16 +7837,16 @@
       <c r="Z204" s="3"/>
     </row>
     <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="13"/>
-      <c r="B205" s="13"/>
-      <c r="C205" s="13"/>
-      <c r="D205" s="13"/>
-      <c r="E205" s="13"/>
-      <c r="F205" s="13"/>
-      <c r="G205" s="13"/>
-      <c r="H205" s="13"/>
-      <c r="I205" s="13"/>
-      <c r="J205" s="14"/>
+      <c r="A205" s="10"/>
+      <c r="B205" s="10"/>
+      <c r="C205" s="10"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="10"/>
+      <c r="G205" s="10"/>
+      <c r="H205" s="10"/>
+      <c r="I205" s="10"/>
+      <c r="J205" s="11"/>
       <c r="K205" s="3"/>
       <c r="L205" s="3"/>
       <c r="M205" s="3"/>
@@ -7622,16 +7865,16 @@
       <c r="Z205" s="3"/>
     </row>
     <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="13"/>
-      <c r="B206" s="13"/>
-      <c r="C206" s="13"/>
-      <c r="D206" s="13"/>
-      <c r="E206" s="13"/>
-      <c r="F206" s="13"/>
-      <c r="G206" s="13"/>
-      <c r="H206" s="13"/>
-      <c r="I206" s="13"/>
-      <c r="J206" s="14"/>
+      <c r="A206" s="10"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="10"/>
+      <c r="G206" s="10"/>
+      <c r="H206" s="10"/>
+      <c r="I206" s="10"/>
+      <c r="J206" s="11"/>
       <c r="K206" s="3"/>
       <c r="L206" s="3"/>
       <c r="M206" s="3"/>
@@ -7650,16 +7893,16 @@
       <c r="Z206" s="3"/>
     </row>
     <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="13"/>
-      <c r="B207" s="13"/>
-      <c r="C207" s="13"/>
-      <c r="D207" s="13"/>
-      <c r="E207" s="13"/>
-      <c r="F207" s="13"/>
-      <c r="G207" s="13"/>
-      <c r="H207" s="13"/>
-      <c r="I207" s="13"/>
-      <c r="J207" s="14"/>
+      <c r="A207" s="10"/>
+      <c r="B207" s="10"/>
+      <c r="C207" s="10"/>
+      <c r="D207" s="10"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="10"/>
+      <c r="G207" s="10"/>
+      <c r="H207" s="10"/>
+      <c r="I207" s="10"/>
+      <c r="J207" s="11"/>
       <c r="K207" s="3"/>
       <c r="L207" s="3"/>
       <c r="M207" s="3"/>
@@ -7678,16 +7921,16 @@
       <c r="Z207" s="3"/>
     </row>
     <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="13"/>
-      <c r="B208" s="13"/>
-      <c r="C208" s="13"/>
-      <c r="D208" s="13"/>
-      <c r="E208" s="13"/>
-      <c r="F208" s="13"/>
-      <c r="G208" s="13"/>
-      <c r="H208" s="13"/>
-      <c r="I208" s="13"/>
-      <c r="J208" s="14"/>
+      <c r="A208" s="10"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="10"/>
+      <c r="H208" s="10"/>
+      <c r="I208" s="10"/>
+      <c r="J208" s="11"/>
       <c r="K208" s="3"/>
       <c r="L208" s="3"/>
       <c r="M208" s="3"/>
@@ -7706,16 +7949,16 @@
       <c r="Z208" s="3"/>
     </row>
     <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="13"/>
-      <c r="B209" s="13"/>
-      <c r="C209" s="13"/>
-      <c r="D209" s="13"/>
-      <c r="E209" s="13"/>
-      <c r="F209" s="13"/>
-      <c r="G209" s="13"/>
-      <c r="H209" s="13"/>
-      <c r="I209" s="13"/>
-      <c r="J209" s="14"/>
+      <c r="A209" s="10"/>
+      <c r="B209" s="10"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="10"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="10"/>
+      <c r="G209" s="10"/>
+      <c r="H209" s="10"/>
+      <c r="I209" s="10"/>
+      <c r="J209" s="11"/>
       <c r="K209" s="3"/>
       <c r="L209" s="3"/>
       <c r="M209" s="3"/>
@@ -7734,16 +7977,16 @@
       <c r="Z209" s="3"/>
     </row>
     <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="13"/>
-      <c r="B210" s="13"/>
-      <c r="C210" s="13"/>
-      <c r="D210" s="13"/>
-      <c r="E210" s="13"/>
-      <c r="F210" s="13"/>
-      <c r="G210" s="13"/>
-      <c r="H210" s="13"/>
-      <c r="I210" s="13"/>
-      <c r="J210" s="14"/>
+      <c r="A210" s="10"/>
+      <c r="B210" s="10"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="10"/>
+      <c r="G210" s="10"/>
+      <c r="H210" s="10"/>
+      <c r="I210" s="10"/>
+      <c r="J210" s="11"/>
       <c r="K210" s="3"/>
       <c r="L210" s="3"/>
       <c r="M210" s="3"/>
@@ -7762,16 +8005,16 @@
       <c r="Z210" s="3"/>
     </row>
     <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="13"/>
-      <c r="B211" s="13"/>
-      <c r="C211" s="13"/>
-      <c r="D211" s="13"/>
-      <c r="E211" s="13"/>
-      <c r="F211" s="13"/>
-      <c r="G211" s="13"/>
-      <c r="H211" s="13"/>
-      <c r="I211" s="13"/>
-      <c r="J211" s="14"/>
+      <c r="A211" s="10"/>
+      <c r="B211" s="10"/>
+      <c r="C211" s="10"/>
+      <c r="D211" s="10"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="10"/>
+      <c r="G211" s="10"/>
+      <c r="H211" s="10"/>
+      <c r="I211" s="10"/>
+      <c r="J211" s="11"/>
       <c r="K211" s="3"/>
       <c r="L211" s="3"/>
       <c r="M211" s="3"/>
@@ -7790,16 +8033,16 @@
       <c r="Z211" s="3"/>
     </row>
     <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="13"/>
-      <c r="B212" s="13"/>
-      <c r="C212" s="13"/>
-      <c r="D212" s="13"/>
-      <c r="E212" s="13"/>
-      <c r="F212" s="13"/>
-      <c r="G212" s="13"/>
-      <c r="H212" s="13"/>
-      <c r="I212" s="13"/>
-      <c r="J212" s="14"/>
+      <c r="A212" s="10"/>
+      <c r="B212" s="10"/>
+      <c r="C212" s="10"/>
+      <c r="D212" s="10"/>
+      <c r="E212" s="10"/>
+      <c r="F212" s="10"/>
+      <c r="G212" s="10"/>
+      <c r="H212" s="10"/>
+      <c r="I212" s="10"/>
+      <c r="J212" s="11"/>
       <c r="K212" s="3"/>
       <c r="L212" s="3"/>
       <c r="M212" s="3"/>
@@ -7818,16 +8061,16 @@
       <c r="Z212" s="3"/>
     </row>
     <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="13"/>
-      <c r="B213" s="13"/>
-      <c r="C213" s="13"/>
-      <c r="D213" s="13"/>
-      <c r="E213" s="13"/>
-      <c r="F213" s="13"/>
-      <c r="G213" s="13"/>
-      <c r="H213" s="13"/>
-      <c r="I213" s="13"/>
-      <c r="J213" s="14"/>
+      <c r="A213" s="10"/>
+      <c r="B213" s="10"/>
+      <c r="C213" s="10"/>
+      <c r="D213" s="10"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="10"/>
+      <c r="G213" s="10"/>
+      <c r="H213" s="10"/>
+      <c r="I213" s="10"/>
+      <c r="J213" s="11"/>
       <c r="K213" s="3"/>
       <c r="L213" s="3"/>
       <c r="M213" s="3"/>
@@ -7846,16 +8089,16 @@
       <c r="Z213" s="3"/>
     </row>
     <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="13"/>
-      <c r="B214" s="13"/>
-      <c r="C214" s="13"/>
-      <c r="D214" s="13"/>
-      <c r="E214" s="13"/>
-      <c r="F214" s="13"/>
-      <c r="G214" s="13"/>
-      <c r="H214" s="13"/>
-      <c r="I214" s="13"/>
-      <c r="J214" s="14"/>
+      <c r="A214" s="10"/>
+      <c r="B214" s="10"/>
+      <c r="C214" s="10"/>
+      <c r="D214" s="10"/>
+      <c r="E214" s="10"/>
+      <c r="F214" s="10"/>
+      <c r="G214" s="10"/>
+      <c r="H214" s="10"/>
+      <c r="I214" s="10"/>
+      <c r="J214" s="11"/>
       <c r="K214" s="3"/>
       <c r="L214" s="3"/>
       <c r="M214" s="3"/>
@@ -7874,16 +8117,16 @@
       <c r="Z214" s="3"/>
     </row>
     <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="13"/>
-      <c r="B215" s="13"/>
-      <c r="C215" s="13"/>
-      <c r="D215" s="13"/>
-      <c r="E215" s="13"/>
-      <c r="F215" s="13"/>
-      <c r="G215" s="13"/>
-      <c r="H215" s="13"/>
-      <c r="I215" s="13"/>
-      <c r="J215" s="14"/>
+      <c r="A215" s="10"/>
+      <c r="B215" s="10"/>
+      <c r="C215" s="10"/>
+      <c r="D215" s="10"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="10"/>
+      <c r="G215" s="10"/>
+      <c r="H215" s="10"/>
+      <c r="I215" s="10"/>
+      <c r="J215" s="11"/>
       <c r="K215" s="3"/>
       <c r="L215" s="3"/>
       <c r="M215" s="3"/>
@@ -7902,16 +8145,16 @@
       <c r="Z215" s="3"/>
     </row>
     <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="13"/>
-      <c r="B216" s="13"/>
-      <c r="C216" s="13"/>
-      <c r="D216" s="13"/>
-      <c r="E216" s="13"/>
-      <c r="F216" s="13"/>
-      <c r="G216" s="13"/>
-      <c r="H216" s="13"/>
-      <c r="I216" s="13"/>
-      <c r="J216" s="14"/>
+      <c r="A216" s="10"/>
+      <c r="B216" s="10"/>
+      <c r="C216" s="10"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="10"/>
+      <c r="G216" s="10"/>
+      <c r="H216" s="10"/>
+      <c r="I216" s="10"/>
+      <c r="J216" s="11"/>
       <c r="K216" s="3"/>
       <c r="L216" s="3"/>
       <c r="M216" s="3"/>
@@ -7930,16 +8173,16 @@
       <c r="Z216" s="3"/>
     </row>
     <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="13"/>
-      <c r="B217" s="13"/>
-      <c r="C217" s="13"/>
-      <c r="D217" s="13"/>
-      <c r="E217" s="13"/>
-      <c r="F217" s="13"/>
-      <c r="G217" s="13"/>
-      <c r="H217" s="13"/>
-      <c r="I217" s="13"/>
-      <c r="J217" s="14"/>
+      <c r="A217" s="10"/>
+      <c r="B217" s="10"/>
+      <c r="C217" s="10"/>
+      <c r="D217" s="10"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="10"/>
+      <c r="G217" s="10"/>
+      <c r="H217" s="10"/>
+      <c r="I217" s="10"/>
+      <c r="J217" s="11"/>
       <c r="K217" s="3"/>
       <c r="L217" s="3"/>
       <c r="M217" s="3"/>
@@ -7958,16 +8201,16 @@
       <c r="Z217" s="3"/>
     </row>
     <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="13"/>
-      <c r="B218" s="13"/>
-      <c r="C218" s="13"/>
-      <c r="D218" s="13"/>
-      <c r="E218" s="13"/>
-      <c r="F218" s="13"/>
-      <c r="G218" s="13"/>
-      <c r="H218" s="13"/>
-      <c r="I218" s="13"/>
-      <c r="J218" s="14"/>
+      <c r="A218" s="10"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="10"/>
+      <c r="D218" s="10"/>
+      <c r="E218" s="10"/>
+      <c r="F218" s="10"/>
+      <c r="G218" s="10"/>
+      <c r="H218" s="10"/>
+      <c r="I218" s="10"/>
+      <c r="J218" s="11"/>
       <c r="K218" s="3"/>
       <c r="L218" s="3"/>
       <c r="M218" s="3"/>
@@ -7986,16 +8229,16 @@
       <c r="Z218" s="3"/>
     </row>
     <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="13"/>
-      <c r="B219" s="13"/>
-      <c r="C219" s="13"/>
-      <c r="D219" s="13"/>
-      <c r="E219" s="13"/>
-      <c r="F219" s="13"/>
-      <c r="G219" s="13"/>
-      <c r="H219" s="13"/>
-      <c r="I219" s="13"/>
-      <c r="J219" s="14"/>
+      <c r="A219" s="10"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="10"/>
+      <c r="G219" s="10"/>
+      <c r="H219" s="10"/>
+      <c r="I219" s="10"/>
+      <c r="J219" s="11"/>
       <c r="K219" s="3"/>
       <c r="L219" s="3"/>
       <c r="M219" s="3"/>
@@ -8014,16 +8257,16 @@
       <c r="Z219" s="3"/>
     </row>
     <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="13"/>
-      <c r="B220" s="13"/>
-      <c r="C220" s="13"/>
-      <c r="D220" s="13"/>
-      <c r="E220" s="13"/>
-      <c r="F220" s="13"/>
-      <c r="G220" s="13"/>
-      <c r="H220" s="13"/>
-      <c r="I220" s="13"/>
-      <c r="J220" s="14"/>
+      <c r="A220" s="10"/>
+      <c r="B220" s="10"/>
+      <c r="C220" s="10"/>
+      <c r="D220" s="10"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="10"/>
+      <c r="G220" s="10"/>
+      <c r="H220" s="10"/>
+      <c r="I220" s="10"/>
+      <c r="J220" s="11"/>
       <c r="K220" s="3"/>
       <c r="L220" s="3"/>
       <c r="M220" s="3"/>
@@ -8042,16 +8285,16 @@
       <c r="Z220" s="3"/>
     </row>
     <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="13"/>
-      <c r="B221" s="13"/>
-      <c r="C221" s="13"/>
-      <c r="D221" s="13"/>
-      <c r="E221" s="13"/>
-      <c r="F221" s="13"/>
-      <c r="G221" s="13"/>
-      <c r="H221" s="13"/>
-      <c r="I221" s="13"/>
-      <c r="J221" s="14"/>
+      <c r="A221" s="10"/>
+      <c r="B221" s="10"/>
+      <c r="C221" s="10"/>
+      <c r="D221" s="10"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="10"/>
+      <c r="G221" s="10"/>
+      <c r="H221" s="10"/>
+      <c r="I221" s="10"/>
+      <c r="J221" s="11"/>
       <c r="K221" s="3"/>
       <c r="L221" s="3"/>
       <c r="M221" s="3"/>
@@ -8070,16 +8313,16 @@
       <c r="Z221" s="3"/>
     </row>
     <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="13"/>
-      <c r="B222" s="13"/>
-      <c r="C222" s="13"/>
-      <c r="D222" s="13"/>
-      <c r="E222" s="13"/>
-      <c r="F222" s="13"/>
-      <c r="G222" s="13"/>
-      <c r="H222" s="13"/>
-      <c r="I222" s="13"/>
-      <c r="J222" s="14"/>
+      <c r="A222" s="10"/>
+      <c r="B222" s="10"/>
+      <c r="C222" s="10"/>
+      <c r="D222" s="10"/>
+      <c r="E222" s="10"/>
+      <c r="F222" s="10"/>
+      <c r="G222" s="10"/>
+      <c r="H222" s="10"/>
+      <c r="I222" s="10"/>
+      <c r="J222" s="11"/>
       <c r="K222" s="3"/>
       <c r="L222" s="3"/>
       <c r="M222" s="3"/>
@@ -8098,16 +8341,16 @@
       <c r="Z222" s="3"/>
     </row>
     <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="13"/>
-      <c r="B223" s="13"/>
-      <c r="C223" s="13"/>
-      <c r="D223" s="13"/>
-      <c r="E223" s="13"/>
-      <c r="F223" s="13"/>
-      <c r="G223" s="13"/>
-      <c r="H223" s="13"/>
-      <c r="I223" s="13"/>
-      <c r="J223" s="14"/>
+      <c r="A223" s="10"/>
+      <c r="B223" s="10"/>
+      <c r="C223" s="10"/>
+      <c r="D223" s="10"/>
+      <c r="E223" s="10"/>
+      <c r="F223" s="10"/>
+      <c r="G223" s="10"/>
+      <c r="H223" s="10"/>
+      <c r="I223" s="10"/>
+      <c r="J223" s="11"/>
       <c r="K223" s="3"/>
       <c r="L223" s="3"/>
       <c r="M223" s="3"/>
@@ -8126,16 +8369,16 @@
       <c r="Z223" s="3"/>
     </row>
     <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="13"/>
-      <c r="B224" s="13"/>
-      <c r="C224" s="13"/>
-      <c r="D224" s="13"/>
-      <c r="E224" s="13"/>
-      <c r="F224" s="13"/>
-      <c r="G224" s="13"/>
-      <c r="H224" s="13"/>
-      <c r="I224" s="13"/>
-      <c r="J224" s="14"/>
+      <c r="A224" s="10"/>
+      <c r="B224" s="10"/>
+      <c r="C224" s="10"/>
+      <c r="D224" s="10"/>
+      <c r="E224" s="10"/>
+      <c r="F224" s="10"/>
+      <c r="G224" s="10"/>
+      <c r="H224" s="10"/>
+      <c r="I224" s="10"/>
+      <c r="J224" s="11"/>
       <c r="K224" s="3"/>
       <c r="L224" s="3"/>
       <c r="M224" s="3"/>
@@ -8154,16 +8397,16 @@
       <c r="Z224" s="3"/>
     </row>
     <row r="225" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="13"/>
-      <c r="B225" s="13"/>
-      <c r="C225" s="13"/>
-      <c r="D225" s="13"/>
-      <c r="E225" s="13"/>
-      <c r="F225" s="13"/>
-      <c r="G225" s="13"/>
-      <c r="H225" s="13"/>
-      <c r="I225" s="13"/>
-      <c r="J225" s="14"/>
+      <c r="A225" s="10"/>
+      <c r="B225" s="10"/>
+      <c r="C225" s="10"/>
+      <c r="D225" s="10"/>
+      <c r="E225" s="10"/>
+      <c r="F225" s="10"/>
+      <c r="G225" s="10"/>
+      <c r="H225" s="10"/>
+      <c r="I225" s="10"/>
+      <c r="J225" s="11"/>
       <c r="K225" s="3"/>
       <c r="L225" s="3"/>
       <c r="M225" s="3"/>
@@ -8182,16 +8425,16 @@
       <c r="Z225" s="3"/>
     </row>
     <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="13"/>
-      <c r="B226" s="13"/>
-      <c r="C226" s="13"/>
-      <c r="D226" s="13"/>
-      <c r="E226" s="13"/>
-      <c r="F226" s="13"/>
-      <c r="G226" s="13"/>
-      <c r="H226" s="13"/>
-      <c r="I226" s="13"/>
-      <c r="J226" s="14"/>
+      <c r="A226" s="10"/>
+      <c r="B226" s="10"/>
+      <c r="C226" s="10"/>
+      <c r="D226" s="10"/>
+      <c r="E226" s="10"/>
+      <c r="F226" s="10"/>
+      <c r="G226" s="10"/>
+      <c r="H226" s="10"/>
+      <c r="I226" s="10"/>
+      <c r="J226" s="11"/>
       <c r="K226" s="3"/>
       <c r="L226" s="3"/>
       <c r="M226" s="3"/>
@@ -8210,16 +8453,16 @@
       <c r="Z226" s="3"/>
     </row>
     <row r="227" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="13"/>
-      <c r="B227" s="13"/>
-      <c r="C227" s="13"/>
-      <c r="D227" s="13"/>
-      <c r="E227" s="13"/>
-      <c r="F227" s="13"/>
-      <c r="G227" s="13"/>
-      <c r="H227" s="13"/>
-      <c r="I227" s="13"/>
-      <c r="J227" s="14"/>
+      <c r="A227" s="10"/>
+      <c r="B227" s="10"/>
+      <c r="C227" s="10"/>
+      <c r="D227" s="10"/>
+      <c r="E227" s="10"/>
+      <c r="F227" s="10"/>
+      <c r="G227" s="10"/>
+      <c r="H227" s="10"/>
+      <c r="I227" s="10"/>
+      <c r="J227" s="11"/>
       <c r="K227" s="3"/>
       <c r="L227" s="3"/>
       <c r="M227" s="3"/>
@@ -8238,16 +8481,16 @@
       <c r="Z227" s="3"/>
     </row>
     <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="13"/>
-      <c r="B228" s="13"/>
-      <c r="C228" s="13"/>
-      <c r="D228" s="13"/>
-      <c r="E228" s="13"/>
-      <c r="F228" s="13"/>
-      <c r="G228" s="13"/>
-      <c r="H228" s="13"/>
-      <c r="I228" s="13"/>
-      <c r="J228" s="14"/>
+      <c r="A228" s="10"/>
+      <c r="B228" s="10"/>
+      <c r="C228" s="10"/>
+      <c r="D228" s="10"/>
+      <c r="E228" s="10"/>
+      <c r="F228" s="10"/>
+      <c r="G228" s="10"/>
+      <c r="H228" s="10"/>
+      <c r="I228" s="10"/>
+      <c r="J228" s="11"/>
       <c r="K228" s="3"/>
       <c r="L228" s="3"/>
       <c r="M228" s="3"/>
@@ -8266,16 +8509,16 @@
       <c r="Z228" s="3"/>
     </row>
     <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="13"/>
-      <c r="B229" s="13"/>
-      <c r="C229" s="13"/>
-      <c r="D229" s="13"/>
-      <c r="E229" s="13"/>
-      <c r="F229" s="13"/>
-      <c r="G229" s="13"/>
-      <c r="H229" s="13"/>
-      <c r="I229" s="13"/>
-      <c r="J229" s="14"/>
+      <c r="A229" s="10"/>
+      <c r="B229" s="10"/>
+      <c r="C229" s="10"/>
+      <c r="D229" s="10"/>
+      <c r="E229" s="10"/>
+      <c r="F229" s="10"/>
+      <c r="G229" s="10"/>
+      <c r="H229" s="10"/>
+      <c r="I229" s="10"/>
+      <c r="J229" s="11"/>
       <c r="K229" s="3"/>
       <c r="L229" s="3"/>
       <c r="M229" s="3"/>
@@ -8294,16 +8537,16 @@
       <c r="Z229" s="3"/>
     </row>
     <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="13"/>
-      <c r="B230" s="13"/>
-      <c r="C230" s="13"/>
-      <c r="D230" s="13"/>
-      <c r="E230" s="13"/>
-      <c r="F230" s="13"/>
-      <c r="G230" s="13"/>
-      <c r="H230" s="13"/>
-      <c r="I230" s="13"/>
-      <c r="J230" s="14"/>
+      <c r="A230" s="10"/>
+      <c r="B230" s="10"/>
+      <c r="C230" s="10"/>
+      <c r="D230" s="10"/>
+      <c r="E230" s="10"/>
+      <c r="F230" s="10"/>
+      <c r="G230" s="10"/>
+      <c r="H230" s="10"/>
+      <c r="I230" s="10"/>
+      <c r="J230" s="11"/>
       <c r="K230" s="3"/>
       <c r="L230" s="3"/>
       <c r="M230" s="3"/>
@@ -8322,16 +8565,16 @@
       <c r="Z230" s="3"/>
     </row>
     <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="13"/>
-      <c r="B231" s="13"/>
-      <c r="C231" s="13"/>
-      <c r="D231" s="13"/>
-      <c r="E231" s="13"/>
-      <c r="F231" s="13"/>
-      <c r="G231" s="13"/>
-      <c r="H231" s="13"/>
-      <c r="I231" s="13"/>
-      <c r="J231" s="14"/>
+      <c r="A231" s="10"/>
+      <c r="B231" s="10"/>
+      <c r="C231" s="10"/>
+      <c r="D231" s="10"/>
+      <c r="E231" s="10"/>
+      <c r="F231" s="10"/>
+      <c r="G231" s="10"/>
+      <c r="H231" s="10"/>
+      <c r="I231" s="10"/>
+      <c r="J231" s="11"/>
       <c r="K231" s="3"/>
       <c r="L231" s="3"/>
       <c r="M231" s="3"/>
@@ -8350,16 +8593,16 @@
       <c r="Z231" s="3"/>
     </row>
     <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="13"/>
-      <c r="B232" s="13"/>
-      <c r="C232" s="13"/>
-      <c r="D232" s="13"/>
-      <c r="E232" s="13"/>
-      <c r="F232" s="13"/>
-      <c r="G232" s="13"/>
-      <c r="H232" s="13"/>
-      <c r="I232" s="13"/>
-      <c r="J232" s="14"/>
+      <c r="A232" s="10"/>
+      <c r="B232" s="10"/>
+      <c r="C232" s="10"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="10"/>
+      <c r="F232" s="10"/>
+      <c r="G232" s="10"/>
+      <c r="H232" s="10"/>
+      <c r="I232" s="10"/>
+      <c r="J232" s="11"/>
       <c r="K232" s="3"/>
       <c r="L232" s="3"/>
       <c r="M232" s="3"/>
@@ -8378,16 +8621,16 @@
       <c r="Z232" s="3"/>
     </row>
     <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="13"/>
-      <c r="B233" s="13"/>
-      <c r="C233" s="13"/>
-      <c r="D233" s="13"/>
-      <c r="E233" s="13"/>
-      <c r="F233" s="13"/>
-      <c r="G233" s="13"/>
-      <c r="H233" s="13"/>
-      <c r="I233" s="13"/>
-      <c r="J233" s="14"/>
+      <c r="A233" s="10"/>
+      <c r="B233" s="10"/>
+      <c r="C233" s="10"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="10"/>
+      <c r="F233" s="10"/>
+      <c r="G233" s="10"/>
+      <c r="H233" s="10"/>
+      <c r="I233" s="10"/>
+      <c r="J233" s="11"/>
       <c r="K233" s="3"/>
       <c r="L233" s="3"/>
       <c r="M233" s="3"/>
@@ -8406,16 +8649,16 @@
       <c r="Z233" s="3"/>
     </row>
     <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="13"/>
-      <c r="B234" s="13"/>
-      <c r="C234" s="13"/>
-      <c r="D234" s="13"/>
-      <c r="E234" s="13"/>
-      <c r="F234" s="13"/>
-      <c r="G234" s="13"/>
-      <c r="H234" s="13"/>
-      <c r="I234" s="13"/>
-      <c r="J234" s="14"/>
+      <c r="A234" s="10"/>
+      <c r="B234" s="10"/>
+      <c r="C234" s="10"/>
+      <c r="D234" s="10"/>
+      <c r="E234" s="10"/>
+      <c r="F234" s="10"/>
+      <c r="G234" s="10"/>
+      <c r="H234" s="10"/>
+      <c r="I234" s="10"/>
+      <c r="J234" s="11"/>
       <c r="K234" s="3"/>
       <c r="L234" s="3"/>
       <c r="M234" s="3"/>
@@ -9203,138 +9446,213 @@
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <conditionalFormatting sqref="F216:F1002">
-    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="derived">
+    <cfRule type="containsText" dxfId="47" priority="28" operator="containsText" text="derived">
       <formula>NOT(ISERROR(SEARCH(("derived"),(F216))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:Z1 K2:Z3 E13:H14 B4:H12 B15:H21 B25:H34 B22:E24 G22:H24 A4:A34 J4:Z34">
-    <cfRule type="containsText" dxfId="28" priority="10" operator="containsText" text="calc">
+  <conditionalFormatting sqref="A1:Z1 K2:Z3 E13:H14 B4:H12 B21:E25 G21:H25 K21:Z23 B26:H27 B22:H22 J24:Z28 A31:E34 B15:H20 J4:Z20 A4:A30 H4:H28 K29:Z34 B28:E30 G28:H28">
+    <cfRule type="containsText" dxfId="46" priority="29" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH(("calc"),(A1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I1 H35:I1002 H4:H34">
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="literature">
+  <conditionalFormatting sqref="H1:I1 H35:I1002 H4:H28">
+    <cfRule type="containsText" dxfId="45" priority="30" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH(("literature"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I1 H35:I1002 H4:H34">
-    <cfRule type="containsText" dxfId="26" priority="12" operator="containsText" text="guess">
+  <conditionalFormatting sqref="H1:I1 H35:I1002 H4:H28">
+    <cfRule type="containsText" dxfId="44" priority="31" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH(("guess"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I1 H35:I1002 H4:H34">
-    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="not used">
+  <conditionalFormatting sqref="H1:I1 H35:I1002 H4:H28">
+    <cfRule type="containsText" dxfId="43" priority="32" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH(("not used"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I1 H35:I1002 H4:H34">
-    <cfRule type="containsText" dxfId="24" priority="14" operator="containsText" text="literature">
+  <conditionalFormatting sqref="H1:I1 H35:I1002">
+    <cfRule type="containsText" dxfId="42" priority="33" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH(("literature"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I1 H35:I1002 H4:H34">
-    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="guess">
+  <conditionalFormatting sqref="H1:I1 H35:I1002">
+    <cfRule type="containsText" dxfId="41" priority="34" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH(("guess"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I1 H35:I1002 H4:H34">
-    <cfRule type="containsText" dxfId="22" priority="16" operator="containsText" text="calc">
+  <conditionalFormatting sqref="H1:I1 H35:I1002">
+    <cfRule type="containsText" dxfId="40" priority="35" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH(("calc"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:I1 H35:I1002 H4:H34">
-    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="check">
+  <conditionalFormatting sqref="H1:I1 H35:I1002 H4:H28">
+    <cfRule type="containsText" dxfId="39" priority="36" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH(("check"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1 H4:H1002">
-    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="internal data">
+  <conditionalFormatting sqref="H1 H35:H1002 H4:H28">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH(("internal data"),(H1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:H3 J2:J3">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH(("calc"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH(("literature"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="35" priority="40" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH(("guess"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="containsText" dxfId="16" priority="22" operator="containsText" text="not used">
+    <cfRule type="containsText" dxfId="34" priority="41" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH(("not used"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="33" priority="42" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH(("literature"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="containsText" dxfId="14" priority="24" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="32" priority="43" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH(("guess"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="31" priority="44" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH(("calc"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="containsText" dxfId="12" priority="26" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="30" priority="45" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH(("check"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="containsText" dxfId="11" priority="27" operator="containsText" text="internal data">
+    <cfRule type="containsText" dxfId="29" priority="46" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH(("internal data"),(H2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:D14">
-    <cfRule type="containsText" dxfId="10" priority="28" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="28" priority="47" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH(("calc"),(B13))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F24">
-    <cfRule type="containsText" dxfId="9" priority="29" operator="containsText" text="calc">
-      <formula>NOT(ISERROR(SEARCH(("calc"),(F23))))</formula>
+  <conditionalFormatting sqref="F24:F25">
+    <cfRule type="containsText" dxfId="27" priority="48" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH(("calc"),(F24))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I34">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="calc">
+  <conditionalFormatting sqref="I2:I28">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I34">
-    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="literature">
+  <conditionalFormatting sqref="I2:I28">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I34">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="not used">
+  <conditionalFormatting sqref="I2:I28">
+    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="literature">
+    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="guess">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="guess">
       <formula>NOT(ISERROR(SEARCH("guess",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="calc">
+    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="check">
+    <cfRule type="containsText" dxfId="19" priority="24" operator="containsText" text="check">
       <formula>NOT(ISERROR(SEARCH("check",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21 J23">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",J21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:H30">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:H30">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:H30">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",H29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",H29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:H30">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="internal data">
+      <formula>NOT(ISERROR(SEARCH("internal data",H29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:J34">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",F31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:I34">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:I34">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="not used">
+      <formula>NOT(ISERROR(SEARCH("not used",H31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="literature">
+      <formula>NOT(ISERROR(SEARCH("literature",H31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="guess">
+      <formula>NOT(ISERROR(SEARCH("guess",H31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="calc">
+      <formula>NOT(ISERROR(SEARCH("calc",H31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="check">
+      <formula>NOT(ISERROR(SEARCH("check",H31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31:H34">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="internal data">
+      <formula>NOT(ISERROR(SEARCH("internal data",H31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
